--- a/orphan_matches_debug.xlsx
+++ b/orphan_matches_debug.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1fd243431e09c19f/Documents/Emily/crime/news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_21151FF8D7657122CC22B513565ED87656CCF98F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420BABC9-503A-4F4C-8D56-B0E0A408D6C8}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_E2F67758D64E142F681584B5455DCE3AD7C1075D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422E3E21-F7F8-8041-8959-094891FD3ED8}"/>
   <bookViews>
     <workbookView xWindow="4900" yWindow="500" windowWidth="31160" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="389">
   <si>
     <t>rec_type</t>
   </si>
@@ -376,6 +376,9 @@
     <t>100058703:0:0</t>
   </si>
   <si>
+    <t>100058703</t>
+  </si>
+  <si>
     <t>entity_100061864:0:0</t>
   </si>
   <si>
@@ -385,27 +388,6 @@
     <t>100061864</t>
   </si>
   <si>
-    <t>orphan_100060655:0:0</t>
-  </si>
-  <si>
-    <t>100060655:0:0</t>
-  </si>
-  <si>
-    <t>hamaas</t>
-  </si>
-  <si>
-    <t>khaalis</t>
-  </si>
-  <si>
-    <t>100060655</t>
-  </si>
-  <si>
-    <t>orphan_100064636:0:0</t>
-  </si>
-  <si>
-    <t>100064636:0:0</t>
-  </si>
-  <si>
     <t>entity_100063971:0:0</t>
   </si>
   <si>
@@ -475,7 +457,7 @@
     <t>alexander</t>
   </si>
   <si>
-    <t>100009032,100067595,100018007,100026075,100066856,100009259,100018689</t>
+    <t>100067595,100026075,100009032,100066856,100009259,100018689,100018007</t>
   </si>
   <si>
     <t>entity_100067593:0:0</t>
@@ -559,7 +541,7 @@
     <t>gang killing</t>
   </si>
   <si>
-    <t>100002194,100018683,100004364,100001184,100001384,100041397</t>
+    <t>100002194,100018683,100001184,100001384,100041397,100004364,100009541</t>
   </si>
   <si>
     <t>entity_100004063:0:2</t>
@@ -598,12 +580,6 @@
     <t>100001889:0:1</t>
   </si>
   <si>
-    <t>orphan_100009541:0:0</t>
-  </si>
-  <si>
-    <t>100009541:0:0</t>
-  </si>
-  <si>
     <t>entity_100004075:0:0</t>
   </si>
   <si>
@@ -643,7 +619,7 @@
     <t>100009032:0:0</t>
   </si>
   <si>
-    <t>100009032,100009259</t>
+    <t>100009259,100009032</t>
   </si>
   <si>
     <t>entity_100009900:0:0</t>
@@ -898,7 +874,7 @@
     <t>100022057</t>
   </si>
   <si>
-    <t>entity_100023762:0:0</t>
+    <t>match_100023762:0:0</t>
   </si>
   <si>
     <t>100023762:0:0</t>
@@ -910,10 +886,7 @@
     <t>west</t>
   </si>
   <si>
-    <t>100025319,100023762,100037322</t>
-  </si>
-  <si>
-    <t>entity_100025447:0:0</t>
+    <t>100037322,100025319,100023762</t>
   </si>
   <si>
     <t>100025447:0:0</t>
@@ -922,34 +895,16 @@
     <t>100025447</t>
   </si>
   <si>
-    <t>entity_100026182:0:0</t>
-  </si>
-  <si>
-    <t>100026182:0:0</t>
-  </si>
-  <si>
-    <t>100026182</t>
-  </si>
-  <si>
-    <t>orphan_100025888:0:0</t>
-  </si>
-  <si>
     <t>100025888:0:0</t>
   </si>
   <si>
     <t>100025888</t>
   </si>
   <si>
-    <t>orphan_100027128:0:0</t>
-  </si>
-  <si>
     <t>100027128:0:0</t>
   </si>
   <si>
     <t>100027128</t>
-  </si>
-  <si>
-    <t>orphan_100027129:0:0</t>
   </si>
   <si>
     <t>100027129:0:0</t>
@@ -1624,15 +1579,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -2555,7 +2533,7 @@
         <v>90</v>
       </c>
       <c r="W16">
-        <v>0.90570975277989652</v>
+        <v>0.9956950691708345</v>
       </c>
       <c r="X16" t="s">
         <v>93</v>
@@ -2670,7 +2648,7 @@
         <v>102</v>
       </c>
       <c r="W18">
-        <v>0.98412085375114222</v>
+        <v>0.97345557052718801</v>
       </c>
       <c r="X18" t="s">
         <v>103</v>
@@ -2902,8 +2880,8 @@
       <c r="T22" t="s">
         <v>58</v>
       </c>
-      <c r="X22">
-        <v>100058703</v>
+      <c r="X22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2911,7 +2889,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2920,7 +2898,7 @@
         <v>2631</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2944,27 +2922,24 @@
         <v>58</v>
       </c>
       <c r="X23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>2631</v>
+        <v>2636</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24">
-        <v>100060655</v>
+        <v>123</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2976,51 +2951,54 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="K24" s="2">
+        <v>28205</v>
       </c>
       <c r="L24">
-        <v>2631</v>
+        <v>2636</v>
       </c>
       <c r="M24">
-        <v>38.894084890000002</v>
+        <v>38.901917518671503</v>
       </c>
       <c r="N24">
-        <v>-77.018904669999998</v>
+        <v>-76.993754203070495</v>
+      </c>
+      <c r="O24">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
-      </c>
-      <c r="T24" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="U24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>100064636</v>
+        <v>128</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3032,25 +3010,40 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="K25" s="2">
+        <v>28213</v>
       </c>
       <c r="L25">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="M25">
-        <v>38.895002689999998</v>
+        <v>38.967645320000003</v>
       </c>
       <c r="N25">
-        <v>-77.031352870000006</v>
+        <v>-77.027765810000005</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>28</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="T25" t="s">
-        <v>102</v>
-      </c>
-      <c r="X25">
-        <v>100064636</v>
+        <v>43</v>
+      </c>
+      <c r="U25" t="s">
+        <v>129</v>
+      </c>
+      <c r="V25" t="s">
+        <v>130</v>
+      </c>
+      <c r="X25" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -3058,16 +3051,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2636</v>
+        <v>2650</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3076,25 +3069,25 @@
         <v>1977</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="2">
-        <v>28205</v>
+        <v>28219</v>
       </c>
       <c r="L26">
-        <v>2636</v>
+        <v>2650</v>
       </c>
       <c r="M26">
-        <v>38.901917518671503</v>
+        <v>38.90151736</v>
       </c>
       <c r="N26">
-        <v>-76.993754203070495</v>
+        <v>-76.992478160000005</v>
       </c>
       <c r="O26">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P26" t="s">
         <v>28</v>
@@ -3102,14 +3095,8 @@
       <c r="S26" t="s">
         <v>29</v>
       </c>
-      <c r="U26" t="s">
-        <v>130</v>
-      </c>
-      <c r="V26" t="s">
-        <v>131</v>
-      </c>
       <c r="X26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -3117,16 +3104,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3135,40 +3122,28 @@
         <v>1977</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
       </c>
       <c r="K27" s="2">
-        <v>28213</v>
+        <v>28221</v>
       </c>
       <c r="L27">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="M27">
-        <v>38.967645320000003</v>
+        <v>38.909494760000001</v>
       </c>
       <c r="N27">
-        <v>-77.027765810000005</v>
+        <v>-77.024311470000001</v>
       </c>
       <c r="O27">
-        <v>20</v>
-      </c>
-      <c r="P27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
-      </c>
-      <c r="T27" t="s">
-        <v>43</v>
-      </c>
-      <c r="U27" t="s">
-        <v>135</v>
-      </c>
-      <c r="V27" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="X27" t="s">
         <v>137</v>
@@ -3185,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="E28" t="s">
         <v>139</v>
@@ -3203,28 +3178,28 @@
         <v>27</v>
       </c>
       <c r="K28" s="2">
-        <v>28219</v>
+        <v>28221</v>
       </c>
       <c r="L28">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="M28">
-        <v>38.90151736</v>
+        <v>38.908375550000002</v>
       </c>
       <c r="N28">
-        <v>-76.992478160000005</v>
+        <v>-77.011433969999999</v>
       </c>
       <c r="O28">
-        <v>46</v>
-      </c>
-      <c r="P28" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>80</v>
+      </c>
+      <c r="T28" t="s">
+        <v>140</v>
       </c>
       <c r="X28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -3238,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>2652</v>
+        <v>2671</v>
       </c>
       <c r="E29" t="s">
         <v>142</v>
@@ -3256,25 +3231,37 @@
         <v>27</v>
       </c>
       <c r="K29" s="2">
-        <v>28221</v>
+        <v>28240</v>
       </c>
       <c r="L29">
-        <v>2652</v>
+        <v>2671</v>
       </c>
       <c r="M29">
-        <v>38.909494760000001</v>
+        <v>38.847025740483261</v>
       </c>
       <c r="N29">
-        <v>-77.024311470000001</v>
+        <v>-77.023469971066305</v>
       </c>
       <c r="O29">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>96</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>143</v>
+      </c>
+      <c r="V29" t="s">
+        <v>144</v>
       </c>
       <c r="X29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -3282,16 +3269,16 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2652</v>
+        <v>2676</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3306,28 +3293,25 @@
         <v>27</v>
       </c>
       <c r="K30" s="2">
-        <v>28221</v>
+        <v>28245</v>
       </c>
       <c r="L30">
-        <v>2652</v>
-      </c>
-      <c r="M30">
-        <v>38.908375550000002</v>
-      </c>
-      <c r="N30">
-        <v>-77.011433969999999</v>
+        <v>2676</v>
       </c>
       <c r="O30">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="P30" t="s">
+        <v>28</v>
       </c>
       <c r="S30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="T30" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="X30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -3335,16 +3319,16 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3359,54 +3343,57 @@
         <v>27</v>
       </c>
       <c r="K31" s="2">
-        <v>28240</v>
+        <v>28245</v>
       </c>
       <c r="L31">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="M31">
-        <v>38.847025740483261</v>
+        <v>38.897644499999998</v>
       </c>
       <c r="N31">
-        <v>-77.023469971066305</v>
+        <v>-77.024937539999996</v>
       </c>
       <c r="O31">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P31" t="s">
         <v>28</v>
       </c>
       <c r="S31" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="U31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="X31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>2676</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="F32">
+        <v>100067285</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3421,25 +3408,34 @@
         <v>27</v>
       </c>
       <c r="K32" s="2">
-        <v>28245</v>
+        <v>28243</v>
       </c>
       <c r="L32">
-        <v>2676</v>
-      </c>
-      <c r="O32">
-        <v>16</v>
-      </c>
-      <c r="P32" t="s">
-        <v>28</v>
+        <v>2674</v>
+      </c>
+      <c r="M32">
+        <v>38.897644499999998</v>
+      </c>
+      <c r="N32">
+        <v>-77.024937539999996</v>
       </c>
       <c r="S32" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="T32" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="U32" t="s">
+        <v>151</v>
+      </c>
+      <c r="V32" t="s">
+        <v>152</v>
+      </c>
+      <c r="W32">
+        <v>0.99981876030078631</v>
       </c>
       <c r="X32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -3447,16 +3443,16 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3465,63 +3461,60 @@
         <v>1977</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
         <v>27</v>
       </c>
       <c r="K33" s="2">
-        <v>28245</v>
+        <v>28248</v>
       </c>
       <c r="L33">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="M33">
-        <v>38.897644499999998</v>
+        <v>38.887206187616499</v>
       </c>
       <c r="N33">
-        <v>-77.024937539999996</v>
+        <v>-76.979967656939095</v>
       </c>
       <c r="O33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P33" t="s">
         <v>28</v>
       </c>
       <c r="S33" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="T33" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="U33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V33" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="X33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34">
-        <v>100067285</v>
+        <v>162</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3530,22 +3523,28 @@
         <v>1977</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
         <v>27</v>
       </c>
       <c r="K34" s="2">
-        <v>28243</v>
+        <v>28249</v>
       </c>
       <c r="L34">
-        <v>2674</v>
+        <v>2680</v>
       </c>
       <c r="M34">
-        <v>38.897644499999998</v>
+        <v>38.900393465518803</v>
       </c>
       <c r="N34">
-        <v>-77.024937539999996</v>
+        <v>-76.995257621152206</v>
+      </c>
+      <c r="O34">
+        <v>22</v>
+      </c>
+      <c r="P34" t="s">
+        <v>28</v>
       </c>
       <c r="S34" t="s">
         <v>29</v>
@@ -3553,17 +3552,8 @@
       <c r="T34" t="s">
         <v>43</v>
       </c>
-      <c r="U34" t="s">
-        <v>157</v>
-      </c>
-      <c r="V34" t="s">
-        <v>158</v>
-      </c>
-      <c r="W34">
-        <v>0.99990592510734844</v>
-      </c>
       <c r="X34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -3571,16 +3561,16 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3595,37 +3585,22 @@
         <v>27</v>
       </c>
       <c r="K35" s="2">
-        <v>28248</v>
+        <v>28252</v>
       </c>
       <c r="L35">
-        <v>2679</v>
-      </c>
-      <c r="M35">
-        <v>38.887206187616499</v>
-      </c>
-      <c r="N35">
-        <v>-76.979967656939095</v>
+        <v>2683</v>
       </c>
       <c r="O35">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s">
         <v>28</v>
       </c>
-      <c r="S35" t="s">
-        <v>164</v>
-      </c>
       <c r="T35" t="s">
-        <v>70</v>
-      </c>
-      <c r="U35" t="s">
-        <v>165</v>
-      </c>
-      <c r="V35" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="X35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -3633,16 +3608,16 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2680</v>
+        <v>2688</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3657,31 +3632,37 @@
         <v>27</v>
       </c>
       <c r="K36" s="2">
-        <v>28249</v>
+        <v>28257</v>
       </c>
       <c r="L36">
-        <v>2680</v>
+        <v>2688</v>
       </c>
       <c r="M36">
-        <v>38.900393465518803</v>
+        <v>38.913860637500001</v>
       </c>
       <c r="N36">
-        <v>-76.995257621152206</v>
+        <v>-77.0630218525</v>
       </c>
       <c r="O36">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="P36" t="s">
         <v>28</v>
       </c>
+      <c r="Q36" t="s">
+        <v>170</v>
+      </c>
+      <c r="R36" t="s">
+        <v>171</v>
+      </c>
       <c r="S36" t="s">
         <v>29</v>
       </c>
       <c r="T36" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="X36" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -3689,16 +3670,16 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2683</v>
+        <v>2691</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3713,22 +3694,31 @@
         <v>27</v>
       </c>
       <c r="K37" s="2">
-        <v>28252</v>
+        <v>28260</v>
       </c>
       <c r="L37">
-        <v>2683</v>
-      </c>
-      <c r="O37">
-        <v>59</v>
-      </c>
-      <c r="P37" t="s">
-        <v>28</v>
+        <v>2691</v>
+      </c>
+      <c r="M37">
+        <v>38.89461601</v>
+      </c>
+      <c r="N37">
+        <v>-76.977932780000003</v>
+      </c>
+      <c r="S37" t="s">
+        <v>37</v>
       </c>
       <c r="T37" t="s">
-        <v>172</v>
+        <v>38</v>
+      </c>
+      <c r="U37" t="s">
+        <v>176</v>
+      </c>
+      <c r="V37" t="s">
+        <v>177</v>
       </c>
       <c r="X37" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
@@ -3736,16 +3726,16 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3760,48 +3750,48 @@
         <v>27</v>
       </c>
       <c r="K38" s="2">
-        <v>28257</v>
+        <v>28260</v>
       </c>
       <c r="L38">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="M38">
-        <v>38.909055500000001</v>
+        <v>38.89461601</v>
       </c>
       <c r="N38">
-        <v>-77.086629889999998</v>
+        <v>-76.977932780000003</v>
       </c>
       <c r="O38">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="P38" t="s">
         <v>28</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s">
         <v>176</v>
       </c>
-      <c r="R38" t="s">
+      <c r="V38" t="s">
         <v>177</v>
       </c>
-      <c r="S38" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="X38" t="s">
         <v>178</v>
-      </c>
-      <c r="X38" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>2691</v>
@@ -3809,6 +3799,9 @@
       <c r="E39" t="s">
         <v>181</v>
       </c>
+      <c r="F39">
+        <v>100001889</v>
+      </c>
       <c r="G39">
         <v>2</v>
       </c>
@@ -3833,6 +3826,12 @@
       <c r="N39">
         <v>-76.977932780000003</v>
       </c>
+      <c r="O39">
+        <v>77</v>
+      </c>
+      <c r="P39" t="s">
+        <v>28</v>
+      </c>
       <c r="S39" t="s">
         <v>37</v>
       </c>
@@ -3840,13 +3839,16 @@
         <v>38</v>
       </c>
       <c r="U39" t="s">
+        <v>176</v>
+      </c>
+      <c r="V39" t="s">
+        <v>177</v>
+      </c>
+      <c r="W39">
+        <v>0.99999992908129065</v>
+      </c>
+      <c r="X39" t="s">
         <v>182</v>
-      </c>
-      <c r="V39" t="s">
-        <v>183</v>
-      </c>
-      <c r="X39" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
@@ -3854,7 +3856,7 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3863,7 +3865,7 @@
         <v>2691</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3890,10 +3892,10 @@
         <v>-76.977932780000003</v>
       </c>
       <c r="O40">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
         <v>37</v>
@@ -3902,13 +3904,13 @@
         <v>38</v>
       </c>
       <c r="U40" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="V40" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="X40" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
@@ -3916,7 +3918,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3925,7 +3927,7 @@
         <v>2691</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F41">
         <v>100001889</v>
@@ -3954,12 +3956,6 @@
       <c r="N41">
         <v>-76.977932780000003</v>
       </c>
-      <c r="O41">
-        <v>77</v>
-      </c>
-      <c r="P41" t="s">
-        <v>28</v>
-      </c>
       <c r="S41" t="s">
         <v>37</v>
       </c>
@@ -3967,16 +3963,16 @@
         <v>38</v>
       </c>
       <c r="U41" t="s">
+        <v>176</v>
+      </c>
+      <c r="V41" t="s">
+        <v>177</v>
+      </c>
+      <c r="W41">
+        <v>0.99999635576177803</v>
+      </c>
+      <c r="X41" t="s">
         <v>182</v>
-      </c>
-      <c r="V41" t="s">
-        <v>183</v>
-      </c>
-      <c r="W41">
-        <v>0.99999899339678344</v>
-      </c>
-      <c r="X41" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -3984,16 +3980,16 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>2691</v>
+        <v>2702</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4008,57 +4004,54 @@
         <v>27</v>
       </c>
       <c r="K42" s="2">
-        <v>28260</v>
+        <v>28271</v>
       </c>
       <c r="L42">
-        <v>2691</v>
+        <v>2702</v>
       </c>
       <c r="M42">
-        <v>38.89461601</v>
+        <v>38.922003959999998</v>
       </c>
       <c r="N42">
-        <v>-76.977932780000003</v>
+        <v>-77.032360629999999</v>
       </c>
       <c r="O42">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="P42" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T42" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U42" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="V42" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="X42" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2691</v>
+        <v>2706</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43">
-        <v>100001889</v>
+        <v>192</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4073,54 +4066,54 @@
         <v>27</v>
       </c>
       <c r="K43" s="2">
-        <v>28260</v>
+        <v>28275</v>
       </c>
       <c r="L43">
-        <v>2691</v>
+        <v>2706</v>
       </c>
       <c r="M43">
-        <v>38.89461601</v>
+        <v>38.90233267</v>
       </c>
       <c r="N43">
-        <v>-76.977932780000003</v>
+        <v>-76.974831859999995</v>
+      </c>
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43" t="s">
+        <v>28</v>
       </c>
       <c r="S43" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="T43" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="U43" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="V43" t="s">
-        <v>183</v>
-      </c>
-      <c r="W43">
-        <v>0.99994653583160487</v>
+        <v>195</v>
       </c>
       <c r="X43" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2692</v>
+        <v>2722</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44">
-        <v>100009541</v>
+        <v>198</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4129,28 +4122,25 @@
         <v>1977</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
       </c>
       <c r="L44">
-        <v>2692</v>
-      </c>
-      <c r="M44">
-        <v>38.928276050000001</v>
-      </c>
-      <c r="N44">
-        <v>-76.992197739999995</v>
+        <v>2722</v>
+      </c>
+      <c r="P44" t="s">
+        <v>28</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="T44" t="s">
-        <v>102</v>
-      </c>
-      <c r="X44">
-        <v>100009541</v>
+        <v>70</v>
+      </c>
+      <c r="X44" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -4158,16 +4148,16 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>2702</v>
+        <v>2733</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4176,43 +4166,37 @@
         <v>1977</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" t="s">
         <v>27</v>
       </c>
       <c r="K45" s="2">
-        <v>28271</v>
+        <v>28302</v>
       </c>
       <c r="L45">
-        <v>2702</v>
-      </c>
-      <c r="M45">
-        <v>38.922003959999998</v>
-      </c>
-      <c r="N45">
-        <v>-77.032360629999999</v>
+        <v>2733</v>
       </c>
       <c r="O45">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s">
         <v>70</v>
       </c>
       <c r="U45" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="V45" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="X45" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -4220,16 +4204,16 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2706</v>
+        <v>2734</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4238,43 +4222,37 @@
         <v>1977</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
         <v>27</v>
       </c>
       <c r="K46" s="2">
-        <v>28275</v>
+        <v>28303</v>
       </c>
       <c r="L46">
-        <v>2706</v>
+        <v>2734</v>
       </c>
       <c r="M46">
-        <v>38.90233267</v>
+        <v>38.964902647311902</v>
       </c>
       <c r="N46">
-        <v>-76.974831859999995</v>
+        <v>-77.075573012640405</v>
       </c>
       <c r="O46">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P46" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s">
-        <v>201</v>
-      </c>
-      <c r="U46" t="s">
-        <v>202</v>
-      </c>
-      <c r="V46" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="X46" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -4282,16 +4260,16 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>2722</v>
+        <v>2735</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4303,22 +4281,40 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="K47" s="2">
+        <v>28304</v>
       </c>
       <c r="L47">
-        <v>2722</v>
+        <v>2735</v>
+      </c>
+      <c r="M47">
+        <v>38.968630990000001</v>
+      </c>
+      <c r="N47">
+        <v>-77.033721630000002</v>
+      </c>
+      <c r="O47">
+        <v>52</v>
       </c>
       <c r="P47" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s">
-        <v>70</v>
+        <v>140</v>
+      </c>
+      <c r="U47" t="s">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s">
+        <v>209</v>
       </c>
       <c r="X47" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -4326,16 +4322,16 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4350,31 +4346,34 @@
         <v>27</v>
       </c>
       <c r="K48" s="2">
-        <v>28302</v>
+        <v>28305</v>
       </c>
       <c r="L48">
-        <v>2733</v>
+        <v>2736</v>
+      </c>
+      <c r="M48">
+        <v>38.93741412</v>
+      </c>
+      <c r="N48">
+        <v>-76.977303259999999</v>
       </c>
       <c r="O48">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="P48" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S48" t="s">
-        <v>80</v>
-      </c>
-      <c r="T48" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="U48" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="V48" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="X48" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -4382,16 +4381,16 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4400,37 +4399,40 @@
         <v>1977</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
         <v>27</v>
       </c>
       <c r="K49" s="2">
-        <v>28303</v>
+        <v>28307</v>
       </c>
       <c r="L49">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="M49">
-        <v>38.964902647311902</v>
+        <v>38.906440872250101</v>
       </c>
       <c r="N49">
-        <v>-77.075573012640405</v>
+        <v>-77.023468597908646</v>
       </c>
       <c r="O49">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S49" t="s">
-        <v>80</v>
-      </c>
-      <c r="T49" t="s">
-        <v>70</v>
+        <v>29</v>
+      </c>
+      <c r="U49" t="s">
+        <v>218</v>
+      </c>
+      <c r="V49" t="s">
+        <v>219</v>
       </c>
       <c r="X49" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -4438,16 +4440,16 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2735</v>
+        <v>2757</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4456,43 +4458,43 @@
         <v>1977</v>
       </c>
       <c r="I50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J50" t="s">
         <v>27</v>
       </c>
       <c r="K50" s="2">
-        <v>28304</v>
+        <v>28326</v>
       </c>
       <c r="L50">
-        <v>2735</v>
+        <v>2757</v>
       </c>
       <c r="M50">
-        <v>38.968630990000001</v>
+        <v>38.903969009999997</v>
       </c>
       <c r="N50">
-        <v>-77.033721630000002</v>
+        <v>-76.973114760000001</v>
       </c>
       <c r="O50">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P50" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="V50" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="X50" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -4500,16 +4502,16 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>2736</v>
+        <v>2760</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4518,40 +4520,40 @@
         <v>1977</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
         <v>27</v>
       </c>
       <c r="K51" s="2">
-        <v>28305</v>
+        <v>28329</v>
       </c>
       <c r="L51">
-        <v>2736</v>
+        <v>2760</v>
       </c>
       <c r="M51">
-        <v>38.93741412</v>
+        <v>38.902965583304102</v>
       </c>
       <c r="N51">
-        <v>-76.977303259999999</v>
+        <v>-76.978731444338294</v>
       </c>
       <c r="O51">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="U51" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="V51" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="X51" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -4559,16 +4561,16 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>2738</v>
+        <v>2763</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4583,19 +4585,19 @@
         <v>27</v>
       </c>
       <c r="K52" s="2">
-        <v>28307</v>
+        <v>28332</v>
       </c>
       <c r="L52">
-        <v>2738</v>
+        <v>2763</v>
       </c>
       <c r="M52">
-        <v>38.906440872250101</v>
+        <v>38.907236290827399</v>
       </c>
       <c r="N52">
-        <v>-77.023468597908646</v>
+        <v>-77.022944720894202</v>
       </c>
       <c r="O52">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="P52" t="s">
         <v>28</v>
@@ -4603,14 +4605,11 @@
       <c r="S52" t="s">
         <v>29</v>
       </c>
-      <c r="U52" t="s">
-        <v>226</v>
-      </c>
-      <c r="V52" t="s">
-        <v>227</v>
+      <c r="T52" t="s">
+        <v>43</v>
       </c>
       <c r="X52" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -4618,16 +4617,16 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4642,37 +4641,31 @@
         <v>27</v>
       </c>
       <c r="K53" s="2">
-        <v>28326</v>
+        <v>28333</v>
       </c>
       <c r="L53">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="M53">
-        <v>38.903969009999997</v>
+        <v>38.964752240000003</v>
       </c>
       <c r="N53">
-        <v>-76.973114760000001</v>
+        <v>-77.03025762</v>
       </c>
       <c r="O53">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P53" t="s">
         <v>28</v>
       </c>
       <c r="S53" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
-      </c>
-      <c r="U53" t="s">
-        <v>231</v>
-      </c>
-      <c r="V53" t="s">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="X53" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -4680,16 +4673,16 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2760</v>
+        <v>2765</v>
       </c>
       <c r="E54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -4704,34 +4697,37 @@
         <v>27</v>
       </c>
       <c r="K54" s="2">
-        <v>28329</v>
+        <v>28334</v>
       </c>
       <c r="L54">
-        <v>2760</v>
+        <v>2765</v>
       </c>
       <c r="M54">
-        <v>38.902965583304102</v>
+        <v>38.914554940000002</v>
       </c>
       <c r="N54">
-        <v>-76.978731444338294</v>
+        <v>-77.027862529999993</v>
       </c>
       <c r="O54">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P54" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S54" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="T54" t="s">
+        <v>43</v>
       </c>
       <c r="U54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V54" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="X54" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -4739,16 +4735,16 @@
         <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4763,31 +4759,37 @@
         <v>27</v>
       </c>
       <c r="K55" s="2">
-        <v>28332</v>
+        <v>28335</v>
       </c>
       <c r="L55">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="M55">
-        <v>38.907236290827399</v>
+        <v>38.855702280000003</v>
       </c>
       <c r="N55">
-        <v>-77.022944720894202</v>
+        <v>-76.967278980000003</v>
       </c>
       <c r="O55">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="P55" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="T55" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="U55" t="s">
+        <v>243</v>
+      </c>
+      <c r="V55" t="s">
+        <v>244</v>
       </c>
       <c r="X55" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -4795,16 +4797,16 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="E56" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -4819,19 +4821,19 @@
         <v>27</v>
       </c>
       <c r="K56" s="2">
-        <v>28333</v>
+        <v>28335</v>
       </c>
       <c r="L56">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="M56">
-        <v>38.964752240000003</v>
+        <v>38.90045731</v>
       </c>
       <c r="N56">
-        <v>-77.03025762</v>
+        <v>-76.999878609999996</v>
       </c>
       <c r="O56">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="P56" t="s">
         <v>28</v>
@@ -4843,7 +4845,7 @@
         <v>43</v>
       </c>
       <c r="X56" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -4851,16 +4853,16 @@
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="E57" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -4875,19 +4877,19 @@
         <v>27</v>
       </c>
       <c r="K57" s="2">
-        <v>28334</v>
+        <v>28336</v>
       </c>
       <c r="L57">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="M57">
-        <v>38.914554940000002</v>
+        <v>38.905645453672797</v>
       </c>
       <c r="N57">
-        <v>-77.027862529999993</v>
+        <v>-77.023992474923105</v>
       </c>
       <c r="O57">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="P57" t="s">
         <v>28</v>
@@ -4895,17 +4897,14 @@
       <c r="S57" t="s">
         <v>29</v>
       </c>
-      <c r="T57" t="s">
-        <v>43</v>
-      </c>
       <c r="U57" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="V57" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="X57" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -4913,16 +4912,16 @@
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E58" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -4931,28 +4930,28 @@
         <v>1977</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J58" t="s">
         <v>27</v>
       </c>
       <c r="K58" s="2">
-        <v>28335</v>
+        <v>28339</v>
       </c>
       <c r="L58">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="M58">
-        <v>38.855702280000003</v>
+        <v>38.944230140000002</v>
       </c>
       <c r="N58">
-        <v>-76.967278980000003</v>
+        <v>-77.023664650000001</v>
       </c>
       <c r="O58">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="P58" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S58" t="s">
         <v>42</v>
@@ -4961,13 +4960,13 @@
         <v>70</v>
       </c>
       <c r="U58" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="V58" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="X58" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -4975,16 +4974,16 @@
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2766</v>
+        <v>2772</v>
       </c>
       <c r="E59" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -4993,25 +4992,19 @@
         <v>1977</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J59" t="s">
         <v>27</v>
       </c>
       <c r="K59" s="2">
-        <v>28335</v>
+        <v>28341</v>
       </c>
       <c r="L59">
-        <v>2766</v>
-      </c>
-      <c r="M59">
-        <v>38.90045731</v>
-      </c>
-      <c r="N59">
-        <v>-76.999878609999996</v>
+        <v>2772</v>
       </c>
       <c r="O59">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="P59" t="s">
         <v>28</v>
@@ -5023,7 +5016,7 @@
         <v>43</v>
       </c>
       <c r="X59" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -5031,16 +5024,16 @@
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2767</v>
+        <v>2780</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5049,40 +5042,43 @@
         <v>1977</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J60" t="s">
         <v>27</v>
       </c>
       <c r="K60" s="2">
-        <v>28336</v>
+        <v>28349</v>
       </c>
       <c r="L60">
-        <v>2767</v>
+        <v>2780</v>
       </c>
       <c r="M60">
-        <v>38.905645453672797</v>
+        <v>38.91025973</v>
       </c>
       <c r="N60">
-        <v>-77.023992474923105</v>
+        <v>-77.021135369999996</v>
       </c>
       <c r="O60">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P60" t="s">
         <v>28</v>
       </c>
       <c r="S60" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="T60" t="s">
+        <v>140</v>
       </c>
       <c r="U60" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="V60" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="X60" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -5090,16 +5086,16 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2770</v>
+        <v>2783</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5114,37 +5110,37 @@
         <v>27</v>
       </c>
       <c r="K61" s="2">
-        <v>28339</v>
+        <v>28352</v>
       </c>
       <c r="L61">
-        <v>2770</v>
+        <v>2783</v>
       </c>
       <c r="M61">
-        <v>38.944230140000002</v>
+        <v>38.894652530000002</v>
       </c>
       <c r="N61">
-        <v>-77.023664650000001</v>
+        <v>-76.991091679999997</v>
       </c>
       <c r="O61">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="T61" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="U61" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="V61" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="X61" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -5152,16 +5148,16 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2772</v>
+        <v>2786</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5176,25 +5172,28 @@
         <v>27</v>
       </c>
       <c r="K62" s="2">
-        <v>28341</v>
+        <v>28355</v>
       </c>
       <c r="L62">
-        <v>2772</v>
+        <v>2786</v>
+      </c>
+      <c r="M62">
+        <v>38.860680372981903</v>
+      </c>
+      <c r="N62">
+        <v>-76.969326090709899</v>
       </c>
       <c r="O62">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P62" t="s">
         <v>28</v>
       </c>
       <c r="S62" t="s">
-        <v>96</v>
-      </c>
-      <c r="T62" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="X62" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -5202,16 +5201,16 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2780</v>
+        <v>2789</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5226,37 +5225,28 @@
         <v>27</v>
       </c>
       <c r="K63" s="2">
-        <v>28349</v>
+        <v>28358</v>
       </c>
       <c r="L63">
-        <v>2780</v>
+        <v>2789</v>
       </c>
       <c r="M63">
-        <v>38.91025973</v>
+        <v>38.85781205</v>
       </c>
       <c r="N63">
-        <v>-77.021135369999996</v>
+        <v>-76.989820519999995</v>
       </c>
       <c r="O63">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P63" t="s">
         <v>28</v>
       </c>
       <c r="S63" t="s">
-        <v>42</v>
-      </c>
-      <c r="T63" t="s">
-        <v>146</v>
-      </c>
-      <c r="U63" t="s">
-        <v>272</v>
-      </c>
-      <c r="V63" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="X63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -5264,16 +5254,16 @@
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2783</v>
+        <v>2791</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5288,37 +5278,31 @@
         <v>27</v>
       </c>
       <c r="K64" s="2">
-        <v>28352</v>
+        <v>28360</v>
       </c>
       <c r="L64">
-        <v>2783</v>
+        <v>2791</v>
       </c>
       <c r="M64">
-        <v>38.894652530000002</v>
+        <v>38.914696901022353</v>
       </c>
       <c r="N64">
-        <v>-76.991091679999997</v>
+        <v>-77.038739092433602</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="P64" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S64" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="T64" t="s">
-        <v>97</v>
-      </c>
-      <c r="U64" t="s">
-        <v>277</v>
-      </c>
-      <c r="V64" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="X64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -5326,16 +5310,16 @@
         <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -5344,25 +5328,25 @@
         <v>1977</v>
       </c>
       <c r="I65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J65" t="s">
         <v>27</v>
       </c>
       <c r="K65" s="2">
-        <v>28355</v>
+        <v>28369</v>
       </c>
       <c r="L65">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="M65">
-        <v>38.860680372981903</v>
+        <v>38.902514301686203</v>
       </c>
       <c r="N65">
-        <v>-76.969326090709899</v>
+        <v>-77.001304691569302</v>
       </c>
       <c r="O65">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P65" t="s">
         <v>28</v>
@@ -5371,7 +5355,7 @@
         <v>29</v>
       </c>
       <c r="X65" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -5379,16 +5363,16 @@
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>2789</v>
+        <v>2809</v>
       </c>
       <c r="E66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -5397,51 +5381,63 @@
         <v>1977</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J66" t="s">
         <v>27</v>
       </c>
       <c r="K66" s="2">
-        <v>28358</v>
+        <v>28378</v>
       </c>
       <c r="L66">
-        <v>2789</v>
+        <v>2809</v>
       </c>
       <c r="M66">
-        <v>38.85781205</v>
+        <v>38.900061237698132</v>
       </c>
       <c r="N66">
-        <v>-76.989820519999995</v>
+        <v>-76.953921647951873</v>
       </c>
       <c r="O66">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P66" t="s">
         <v>28</v>
       </c>
       <c r="S66" t="s">
-        <v>29</v>
+        <v>96</v>
+      </c>
+      <c r="T66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U66" t="s">
+        <v>286</v>
+      </c>
+      <c r="V66" t="s">
+        <v>287</v>
       </c>
       <c r="X66" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>2791</v>
+        <v>2809</v>
       </c>
       <c r="E67" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="F67">
+        <v>100025447</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -5450,28 +5446,16 @@
         <v>1977</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J67" t="s">
         <v>27</v>
       </c>
       <c r="K67" s="2">
-        <v>28360</v>
+        <v>28387</v>
       </c>
       <c r="L67">
-        <v>2791</v>
-      </c>
-      <c r="M67">
-        <v>38.914696901022353</v>
-      </c>
-      <c r="N67">
-        <v>-77.038739092433602</v>
-      </c>
-      <c r="O67">
-        <v>57</v>
-      </c>
-      <c r="P67" t="s">
-        <v>28</v>
+        <v>2818</v>
       </c>
       <c r="S67" t="s">
         <v>29</v>
@@ -5479,25 +5463,31 @@
       <c r="T67" t="s">
         <v>43</v>
       </c>
+      <c r="W67">
+        <v>0.48943300718768978</v>
+      </c>
       <c r="X67" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>2800</v>
+        <v>2809</v>
       </c>
       <c r="E68" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="F68">
+        <v>100025888</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -5509,42 +5499,39 @@
         <v>9</v>
       </c>
       <c r="J68" t="s">
-        <v>27</v>
-      </c>
-      <c r="K68" s="2">
-        <v>28369</v>
+        <v>8</v>
       </c>
       <c r="L68">
-        <v>2800</v>
+        <v>2814</v>
       </c>
       <c r="M68">
-        <v>38.902514301686203</v>
+        <v>38.831961829999997</v>
       </c>
       <c r="N68">
-        <v>-77.001304691569302</v>
-      </c>
-      <c r="O68">
-        <v>28</v>
-      </c>
-      <c r="P68" t="s">
-        <v>28</v>
+        <v>-76.990053619999998</v>
       </c>
       <c r="S68" t="s">
-        <v>29</v>
+        <v>96</v>
+      </c>
+      <c r="T68" t="s">
+        <v>43</v>
+      </c>
+      <c r="W68">
+        <v>0.28091238534032531</v>
       </c>
       <c r="X68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>2809</v>
@@ -5552,6 +5539,9 @@
       <c r="E69" t="s">
         <v>293</v>
       </c>
+      <c r="F69">
+        <v>100027128</v>
+      </c>
       <c r="G69">
         <v>2</v>
       </c>
@@ -5562,57 +5552,42 @@
         <v>9</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
-      </c>
-      <c r="K69" s="2">
-        <v>28378</v>
+        <v>8</v>
       </c>
       <c r="L69">
-        <v>2809</v>
-      </c>
-      <c r="M69">
-        <v>38.900082593124168</v>
-      </c>
-      <c r="N69">
-        <v>-76.95400636871473</v>
-      </c>
-      <c r="O69">
-        <v>47</v>
-      </c>
-      <c r="P69" t="s">
-        <v>28</v>
+        <v>2814</v>
       </c>
       <c r="S69" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="T69" t="s">
         <v>43</v>
       </c>
-      <c r="U69" t="s">
+      <c r="W69">
+        <v>0.40079000294340938</v>
+      </c>
+      <c r="X69" t="s">
         <v>294</v>
-      </c>
-      <c r="V69" t="s">
-        <v>295</v>
-      </c>
-      <c r="X69" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="E70" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="F70">
+        <v>100027129</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -5624,28 +5599,22 @@
         <v>9</v>
       </c>
       <c r="J70" t="s">
-        <v>27</v>
-      </c>
-      <c r="K70" s="2">
-        <v>28381</v>
+        <v>8</v>
       </c>
       <c r="L70">
-        <v>2812</v>
-      </c>
-      <c r="O70">
-        <v>63</v>
-      </c>
-      <c r="P70" t="s">
-        <v>28</v>
+        <v>2814</v>
       </c>
       <c r="S70" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="T70" t="s">
         <v>43</v>
       </c>
+      <c r="W70">
+        <v>0.68092441451871444</v>
+      </c>
       <c r="X70" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
@@ -5653,16 +5622,16 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -5677,22 +5646,16 @@
         <v>27</v>
       </c>
       <c r="K71" s="2">
-        <v>28382</v>
+        <v>28386</v>
       </c>
       <c r="L71">
-        <v>2813</v>
-      </c>
-      <c r="M71">
-        <v>38.857850740000003</v>
-      </c>
-      <c r="N71">
-        <v>-76.987307700000002</v>
+        <v>2817</v>
       </c>
       <c r="O71">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P71" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S71" t="s">
         <v>29</v>
@@ -5701,27 +5664,24 @@
         <v>43</v>
       </c>
       <c r="X71" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>2814</v>
+        <v>2821</v>
       </c>
       <c r="E72" t="s">
-        <v>304</v>
-      </c>
-      <c r="F72">
-        <v>100025888</v>
+        <v>301</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -5733,45 +5693,48 @@
         <v>9</v>
       </c>
       <c r="J72" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="K72" s="2">
+        <v>28390</v>
       </c>
       <c r="L72">
-        <v>2814</v>
+        <v>2821</v>
       </c>
       <c r="M72">
-        <v>38.831961829999997</v>
+        <v>38.858806119999997</v>
       </c>
       <c r="N72">
-        <v>-76.990053619999998</v>
+        <v>-76.962642099999997</v>
+      </c>
+      <c r="O72">
+        <v>17</v>
       </c>
       <c r="S72" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="T72" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="X72" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>2814</v>
+        <v>2837</v>
       </c>
       <c r="E73" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73">
-        <v>100027128</v>
+        <v>304</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -5780,66 +5743,105 @@
         <v>1977</v>
       </c>
       <c r="I73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J73" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="K73" s="2">
+        <v>28406</v>
       </c>
       <c r="L73">
-        <v>2814</v>
+        <v>2837</v>
+      </c>
+      <c r="M73">
+        <v>38.912605706423903</v>
+      </c>
+      <c r="N73">
+        <v>-77.0296224305404</v>
+      </c>
+      <c r="O73">
+        <v>21</v>
+      </c>
+      <c r="P73" t="s">
+        <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="T73" t="s">
         <v>43</v>
       </c>
+      <c r="U73" t="s">
+        <v>305</v>
+      </c>
+      <c r="V73" t="s">
+        <v>306</v>
+      </c>
       <c r="X73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>2844</v>
+      </c>
+      <c r="E74" t="s">
         <v>309</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>2814</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>1977</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="2">
+        <v>28413</v>
+      </c>
+      <c r="L74">
+        <v>2844</v>
+      </c>
+      <c r="M74">
+        <v>38.916487252553203</v>
+      </c>
+      <c r="N74">
+        <v>-77.029329083541001</v>
+      </c>
+      <c r="O74">
+        <v>43</v>
+      </c>
+      <c r="P74" t="s">
+        <v>28</v>
+      </c>
+      <c r="S74" t="s">
+        <v>96</v>
+      </c>
+      <c r="T74" t="s">
+        <v>140</v>
+      </c>
+      <c r="U74" t="s">
         <v>310</v>
       </c>
-      <c r="F74">
-        <v>100027129</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
-        <v>1977</v>
-      </c>
-      <c r="I74">
-        <v>9</v>
-      </c>
-      <c r="J74" t="s">
-        <v>8</v>
-      </c>
-      <c r="L74">
-        <v>2814</v>
-      </c>
-      <c r="S74" t="s">
-        <v>29</v>
-      </c>
-      <c r="T74" t="s">
-        <v>43</v>
+      <c r="V74" t="s">
+        <v>311</v>
       </c>
       <c r="X74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
@@ -5847,16 +5849,16 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2817</v>
+        <v>2847</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -5865,48 +5867,63 @@
         <v>1977</v>
       </c>
       <c r="I75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J75" t="s">
         <v>27</v>
       </c>
       <c r="K75" s="2">
-        <v>28386</v>
+        <v>28416</v>
       </c>
       <c r="L75">
-        <v>2817</v>
+        <v>2847</v>
+      </c>
+      <c r="M75">
+        <v>38.936428300000003</v>
+      </c>
+      <c r="N75">
+        <v>-77.037262819999995</v>
       </c>
       <c r="O75">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P75" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S75" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="T75" t="s">
-        <v>43</v>
+        <v>140</v>
+      </c>
+      <c r="U75" t="s">
+        <v>315</v>
+      </c>
+      <c r="V75" t="s">
+        <v>316</v>
       </c>
       <c r="X75" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2821</v>
+        <v>2851</v>
       </c>
       <c r="E76" t="s">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="F76">
+        <v>100031895</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -5915,34 +5932,43 @@
         <v>1977</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J76" t="s">
         <v>27</v>
       </c>
       <c r="K76" s="2">
-        <v>28390</v>
+        <v>28420</v>
       </c>
       <c r="L76">
-        <v>2821</v>
+        <v>2851</v>
       </c>
       <c r="M76">
-        <v>38.858806119999997</v>
+        <v>38.905853100000002</v>
       </c>
       <c r="N76">
-        <v>-76.962642099999997</v>
+        <v>-77.028817540000006</v>
       </c>
       <c r="O76">
-        <v>17</v>
+        <v>77</v>
+      </c>
+      <c r="P76" t="s">
+        <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="T76" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="U76" t="s">
+        <v>320</v>
+      </c>
+      <c r="V76" t="s">
+        <v>321</v>
       </c>
       <c r="X76" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
@@ -5950,16 +5976,16 @@
         <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2837</v>
+        <v>2852</v>
       </c>
       <c r="E77" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -5974,37 +6000,31 @@
         <v>27</v>
       </c>
       <c r="K77" s="2">
-        <v>28406</v>
+        <v>28421</v>
       </c>
       <c r="L77">
-        <v>2837</v>
+        <v>2852</v>
       </c>
       <c r="M77">
-        <v>38.912605706423903</v>
+        <v>38.846352520000003</v>
       </c>
       <c r="N77">
-        <v>-77.0296224305404</v>
-      </c>
-      <c r="O77">
-        <v>21</v>
-      </c>
-      <c r="P77" t="s">
-        <v>50</v>
+        <v>-76.973713239999995</v>
       </c>
       <c r="S77" t="s">
         <v>42</v>
       </c>
       <c r="T77" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="U77" t="s">
-        <v>320</v>
+        <v>51</v>
       </c>
       <c r="V77" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="X77" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
@@ -6012,16 +6032,16 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2844</v>
+        <v>2858</v>
       </c>
       <c r="E78" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -6036,37 +6056,34 @@
         <v>27</v>
       </c>
       <c r="K78" s="2">
-        <v>28413</v>
+        <v>28427</v>
       </c>
       <c r="L78">
-        <v>2844</v>
+        <v>2858</v>
       </c>
       <c r="M78">
-        <v>38.916487252553203</v>
+        <v>38.880175899999998</v>
       </c>
       <c r="N78">
-        <v>-77.029329083541001</v>
+        <v>-76.996410429999997</v>
       </c>
       <c r="O78">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="P78" t="s">
         <v>28</v>
       </c>
       <c r="S78" t="s">
-        <v>96</v>
-      </c>
-      <c r="T78" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="U78" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="V78" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="X78" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
@@ -6074,16 +6091,16 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2847</v>
+        <v>2860</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -6098,57 +6115,48 @@
         <v>27</v>
       </c>
       <c r="K79" s="2">
-        <v>28416</v>
+        <v>28429</v>
       </c>
       <c r="L79">
-        <v>2847</v>
-      </c>
-      <c r="M79">
-        <v>38.936428300000003</v>
-      </c>
-      <c r="N79">
-        <v>-77.037262819999995</v>
+        <v>2860</v>
       </c>
       <c r="O79">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="T79" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="U79" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="V79" t="s">
-        <v>331</v>
+        <v>195</v>
       </c>
       <c r="X79" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>2851</v>
+        <v>2864</v>
       </c>
       <c r="E80" t="s">
-        <v>334</v>
-      </c>
-      <c r="F80">
-        <v>100031895</v>
+        <v>337</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -6157,43 +6165,43 @@
         <v>1977</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J80" t="s">
         <v>27</v>
       </c>
       <c r="K80" s="2">
-        <v>28420</v>
+        <v>28433</v>
       </c>
       <c r="L80">
-        <v>2851</v>
+        <v>2864</v>
       </c>
       <c r="M80">
-        <v>38.905853100000002</v>
+        <v>38.915329040000003</v>
       </c>
       <c r="N80">
-        <v>-77.028817540000006</v>
+        <v>-77.029267959999999</v>
       </c>
       <c r="O80">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="P80" t="s">
         <v>50</v>
       </c>
       <c r="S80" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="T80" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="U80" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="V80" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X80" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
@@ -6201,16 +6209,16 @@
         <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2852</v>
+        <v>2864</v>
       </c>
       <c r="E81" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -6219,54 +6227,63 @@
         <v>1977</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J81" t="s">
         <v>27</v>
       </c>
       <c r="K81" s="2">
-        <v>28421</v>
+        <v>28433</v>
       </c>
       <c r="L81">
-        <v>2852</v>
+        <v>2864</v>
       </c>
       <c r="M81">
-        <v>38.846352520000003</v>
+        <v>38.921311240000001</v>
       </c>
       <c r="N81">
-        <v>-76.973713239999995</v>
+        <v>-77.033576089999997</v>
+      </c>
+      <c r="O81">
+        <v>18</v>
+      </c>
+      <c r="P81" t="s">
+        <v>28</v>
       </c>
       <c r="S81" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="T81" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="U81" t="s">
-        <v>51</v>
+        <v>343</v>
       </c>
       <c r="V81" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="X81" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2858</v>
+        <v>2864</v>
       </c>
       <c r="E82" t="s">
-        <v>343</v>
+        <v>347</v>
+      </c>
+      <c r="F82">
+        <v>100035465</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -6275,40 +6292,40 @@
         <v>1977</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J82" t="s">
         <v>27</v>
       </c>
       <c r="K82" s="2">
-        <v>28427</v>
+        <v>28433</v>
       </c>
       <c r="L82">
-        <v>2858</v>
+        <v>2864</v>
       </c>
       <c r="M82">
-        <v>38.880175899999998</v>
+        <v>38.921311240000001</v>
       </c>
       <c r="N82">
-        <v>-76.996410429999997</v>
-      </c>
-      <c r="O82">
-        <v>21</v>
+        <v>-77.033576089999997</v>
       </c>
       <c r="P82" t="s">
         <v>28</v>
       </c>
       <c r="S82" t="s">
-        <v>29</v>
+        <v>96</v>
+      </c>
+      <c r="T82" t="s">
+        <v>43</v>
       </c>
       <c r="U82" t="s">
+        <v>343</v>
+      </c>
+      <c r="V82" t="s">
         <v>344</v>
       </c>
-      <c r="V82" t="s">
+      <c r="X82" t="s">
         <v>345</v>
-      </c>
-      <c r="X82" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
@@ -6316,16 +6333,16 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2860</v>
+        <v>2869</v>
       </c>
       <c r="E83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -6334,37 +6351,43 @@
         <v>1977</v>
       </c>
       <c r="I83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J83" t="s">
         <v>27</v>
       </c>
       <c r="K83" s="2">
-        <v>28429</v>
+        <v>28438</v>
       </c>
       <c r="L83">
-        <v>2860</v>
+        <v>2869</v>
+      </c>
+      <c r="M83">
+        <v>38.8671388000663</v>
+      </c>
+      <c r="N83">
+        <v>-76.988343449814195</v>
       </c>
       <c r="O83">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="P83" t="s">
         <v>50</v>
       </c>
       <c r="S83" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="T83" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="U83" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="X83" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
@@ -6372,16 +6395,16 @@
         <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2864</v>
+        <v>2869</v>
       </c>
       <c r="E84" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -6396,37 +6419,37 @@
         <v>27</v>
       </c>
       <c r="K84" s="2">
-        <v>28433</v>
+        <v>28438</v>
       </c>
       <c r="L84">
-        <v>2864</v>
+        <v>2869</v>
       </c>
       <c r="M84">
-        <v>38.915329040000003</v>
+        <v>38.8671388000663</v>
       </c>
       <c r="N84">
-        <v>-77.029267959999999</v>
+        <v>-76.988343449814195</v>
       </c>
       <c r="O84">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="P84" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S84" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="T84" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="U84" t="s">
+        <v>351</v>
+      </c>
+      <c r="V84" t="s">
+        <v>352</v>
+      </c>
+      <c r="X84" t="s">
         <v>353</v>
-      </c>
-      <c r="V84" t="s">
-        <v>354</v>
-      </c>
-      <c r="X84" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
@@ -6440,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2864</v>
+        <v>2877</v>
       </c>
       <c r="E85" t="s">
         <v>357</v>
@@ -6458,37 +6481,28 @@
         <v>27</v>
       </c>
       <c r="K85" s="2">
-        <v>28433</v>
+        <v>28446</v>
       </c>
       <c r="L85">
-        <v>2864</v>
+        <v>2877</v>
       </c>
       <c r="M85">
-        <v>38.921311240000001</v>
+        <v>38.906229971796598</v>
       </c>
       <c r="N85">
-        <v>-77.033576089999997</v>
+        <v>-76.998336451607699</v>
       </c>
       <c r="O85">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P85" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S85" t="s">
-        <v>96</v>
-      </c>
-      <c r="T85" t="s">
-        <v>43</v>
-      </c>
-      <c r="U85" t="s">
+        <v>29</v>
+      </c>
+      <c r="X85" t="s">
         <v>358</v>
-      </c>
-      <c r="V85" t="s">
-        <v>359</v>
-      </c>
-      <c r="X85" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
@@ -6496,19 +6510,19 @@
         <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>2864</v>
+        <v>2882</v>
       </c>
       <c r="E86" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F86">
-        <v>100035465</v>
+        <v>100037808</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -6523,34 +6537,19 @@
         <v>27</v>
       </c>
       <c r="K86" s="2">
-        <v>28433</v>
+        <v>28451</v>
       </c>
       <c r="L86">
-        <v>2864</v>
-      </c>
-      <c r="M86">
-        <v>38.921311240000001</v>
-      </c>
-      <c r="N86">
-        <v>-77.033576089999997</v>
-      </c>
-      <c r="P86" t="s">
-        <v>28</v>
+        <v>2882</v>
       </c>
       <c r="S86" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="T86" t="s">
-        <v>43</v>
-      </c>
-      <c r="U86" t="s">
-        <v>358</v>
-      </c>
-      <c r="V86" t="s">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="X86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
@@ -6558,17 +6557,17 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
+        <v>362</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>2894</v>
+      </c>
+      <c r="E87" t="s">
         <v>363</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>2869</v>
-      </c>
-      <c r="E87" t="s">
-        <v>364</v>
-      </c>
       <c r="G87">
         <v>2</v>
       </c>
@@ -6576,43 +6575,37 @@
         <v>1977</v>
       </c>
       <c r="I87">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J87" t="s">
         <v>27</v>
       </c>
       <c r="K87" s="2">
-        <v>28438</v>
+        <v>28463</v>
       </c>
       <c r="L87">
-        <v>2869</v>
-      </c>
-      <c r="M87">
-        <v>38.8671388000663</v>
-      </c>
-      <c r="N87">
-        <v>-76.988343449814195</v>
+        <v>2894</v>
       </c>
       <c r="O87">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P87" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S87" t="s">
         <v>29</v>
       </c>
       <c r="T87" t="s">
+        <v>43</v>
+      </c>
+      <c r="U87" t="s">
+        <v>351</v>
+      </c>
+      <c r="V87" t="s">
+        <v>364</v>
+      </c>
+      <c r="X87" t="s">
         <v>365</v>
-      </c>
-      <c r="U87" t="s">
-        <v>366</v>
-      </c>
-      <c r="V87" t="s">
-        <v>367</v>
-      </c>
-      <c r="X87" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
@@ -6620,16 +6613,16 @@
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2869</v>
+        <v>2895</v>
       </c>
       <c r="E88" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -6638,25 +6631,25 @@
         <v>1977</v>
       </c>
       <c r="I88">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J88" t="s">
         <v>27</v>
       </c>
       <c r="K88" s="2">
-        <v>28438</v>
+        <v>28464</v>
       </c>
       <c r="L88">
-        <v>2869</v>
+        <v>2895</v>
       </c>
       <c r="M88">
-        <v>38.8671388000663</v>
+        <v>38.884129028426202</v>
       </c>
       <c r="N88">
-        <v>-76.988343449814195</v>
+        <v>-76.930716904505303</v>
       </c>
       <c r="O88">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P88" t="s">
         <v>28</v>
@@ -6665,16 +6658,16 @@
         <v>29</v>
       </c>
       <c r="T88" t="s">
+        <v>43</v>
+      </c>
+      <c r="U88" t="s">
+        <v>351</v>
+      </c>
+      <c r="V88" t="s">
+        <v>364</v>
+      </c>
+      <c r="X88" t="s">
         <v>365</v>
-      </c>
-      <c r="U88" t="s">
-        <v>366</v>
-      </c>
-      <c r="V88" t="s">
-        <v>367</v>
-      </c>
-      <c r="X88" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
@@ -6682,72 +6675,78 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
+        <v>368</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>2896</v>
+      </c>
+      <c r="E89" t="s">
+        <v>369</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>1977</v>
+      </c>
+      <c r="I89">
+        <v>12</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="2">
+        <v>28465</v>
+      </c>
+      <c r="L89">
+        <v>2896</v>
+      </c>
+      <c r="M89">
+        <v>38.884064859285097</v>
+      </c>
+      <c r="N89">
+        <v>-76.956860877353506</v>
+      </c>
+      <c r="O89">
+        <v>43</v>
+      </c>
+      <c r="P89" t="s">
+        <v>28</v>
+      </c>
+      <c r="S89" t="s">
+        <v>42</v>
+      </c>
+      <c r="T89" t="s">
+        <v>350</v>
+      </c>
+      <c r="U89" t="s">
+        <v>71</v>
+      </c>
+      <c r="V89" t="s">
+        <v>370</v>
+      </c>
+      <c r="X89" t="s">
         <v>371</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>2877</v>
-      </c>
-      <c r="E89" t="s">
-        <v>372</v>
-      </c>
-      <c r="G89">
-        <v>2</v>
-      </c>
-      <c r="H89">
-        <v>1977</v>
-      </c>
-      <c r="I89">
-        <v>11</v>
-      </c>
-      <c r="J89" t="s">
-        <v>27</v>
-      </c>
-      <c r="K89" s="2">
-        <v>28446</v>
-      </c>
-      <c r="L89">
-        <v>2877</v>
-      </c>
-      <c r="M89">
-        <v>38.906229971796598</v>
-      </c>
-      <c r="N89">
-        <v>-76.998336451607699</v>
-      </c>
-      <c r="O89">
-        <v>26</v>
-      </c>
-      <c r="P89" t="s">
-        <v>50</v>
-      </c>
-      <c r="S89" t="s">
-        <v>29</v>
-      </c>
-      <c r="X89" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>2882</v>
+        <v>2897</v>
       </c>
       <c r="E90" t="s">
-        <v>375</v>
-      </c>
-      <c r="F90">
-        <v>100037808</v>
+        <v>373</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -6756,25 +6755,43 @@
         <v>1977</v>
       </c>
       <c r="I90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J90" t="s">
         <v>27</v>
       </c>
       <c r="K90" s="2">
-        <v>28451</v>
+        <v>28466</v>
       </c>
       <c r="L90">
-        <v>2882</v>
+        <v>2897</v>
+      </c>
+      <c r="M90">
+        <v>38.884064859285097</v>
+      </c>
+      <c r="N90">
+        <v>-76.956860877353506</v>
+      </c>
+      <c r="O90">
+        <v>30</v>
+      </c>
+      <c r="P90" t="s">
+        <v>28</v>
       </c>
       <c r="S90" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="T90" t="s">
-        <v>102</v>
+        <v>140</v>
+      </c>
+      <c r="U90" t="s">
+        <v>71</v>
+      </c>
+      <c r="V90" t="s">
+        <v>370</v>
       </c>
       <c r="X90" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
@@ -6782,16 +6799,16 @@
         <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2894</v>
+        <v>2903</v>
       </c>
       <c r="E91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -6806,31 +6823,28 @@
         <v>27</v>
       </c>
       <c r="K91" s="2">
-        <v>28463</v>
+        <v>28472</v>
       </c>
       <c r="L91">
-        <v>2894</v>
+        <v>2903</v>
+      </c>
+      <c r="M91">
+        <v>38.903190260000002</v>
+      </c>
+      <c r="N91">
+        <v>-76.972430709999998</v>
       </c>
       <c r="O91">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P91" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S91" t="s">
         <v>29</v>
       </c>
-      <c r="T91" t="s">
-        <v>43</v>
-      </c>
-      <c r="U91" t="s">
-        <v>366</v>
-      </c>
-      <c r="V91" t="s">
-        <v>379</v>
-      </c>
       <c r="X91" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
@@ -6838,16 +6852,16 @@
         <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2895</v>
+        <v>2910</v>
       </c>
       <c r="E92" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -6862,19 +6876,19 @@
         <v>27</v>
       </c>
       <c r="K92" s="2">
-        <v>28464</v>
+        <v>28479</v>
       </c>
       <c r="L92">
-        <v>2895</v>
+        <v>2910</v>
       </c>
       <c r="M92">
-        <v>38.884129028426202</v>
+        <v>38.881321929948399</v>
       </c>
       <c r="N92">
-        <v>-76.930716904505303</v>
+        <v>-76.926883705088798</v>
       </c>
       <c r="O92">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="P92" t="s">
         <v>28</v>
@@ -6886,7 +6900,7 @@
         <v>43</v>
       </c>
       <c r="U92" t="s">
-        <v>366</v>
+        <v>124</v>
       </c>
       <c r="V92" t="s">
         <v>379</v>
@@ -6900,16 +6914,16 @@
         <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2896</v>
+        <v>2914</v>
       </c>
       <c r="E93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -6924,37 +6938,37 @@
         <v>27</v>
       </c>
       <c r="K93" s="2">
-        <v>28465</v>
+        <v>28483</v>
       </c>
       <c r="L93">
-        <v>2896</v>
+        <v>2914</v>
       </c>
       <c r="M93">
-        <v>38.884064859285097</v>
+        <v>38.920393199999999</v>
       </c>
       <c r="N93">
-        <v>-76.956860877353506</v>
+        <v>-77.002216349999998</v>
       </c>
       <c r="O93">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P93" t="s">
         <v>28</v>
       </c>
       <c r="S93" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T93" t="s">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="U93" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="V93" t="s">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="X93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
@@ -6962,16 +6976,16 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="E94" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -6986,280 +7000,41 @@
         <v>27</v>
       </c>
       <c r="K94" s="2">
-        <v>28466</v>
+        <v>28488</v>
       </c>
       <c r="L94">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="M94">
-        <v>38.884064859285097</v>
+        <v>38.910914820000002</v>
       </c>
       <c r="N94">
-        <v>-76.956860877353506</v>
+        <v>-77.031291269999997</v>
       </c>
       <c r="O94">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="P94" t="s">
         <v>28</v>
       </c>
       <c r="S94" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="T94" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="U94" t="s">
-        <v>71</v>
+        <v>386</v>
       </c>
       <c r="V94" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="X94" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" t="s">
-        <v>389</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>2903</v>
-      </c>
-      <c r="E95" t="s">
-        <v>390</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <v>1977</v>
-      </c>
-      <c r="I95">
-        <v>12</v>
-      </c>
-      <c r="J95" t="s">
-        <v>27</v>
-      </c>
-      <c r="K95" s="2">
-        <v>28472</v>
-      </c>
-      <c r="L95">
-        <v>2903</v>
-      </c>
-      <c r="M95">
-        <v>38.903190260000002</v>
-      </c>
-      <c r="N95">
-        <v>-76.972430709999998</v>
-      </c>
-      <c r="O95">
-        <v>20</v>
-      </c>
-      <c r="P95" t="s">
-        <v>50</v>
-      </c>
-      <c r="S95" t="s">
-        <v>29</v>
-      </c>
-      <c r="X95" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" t="s">
-        <v>392</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>2910</v>
-      </c>
-      <c r="E96" t="s">
-        <v>393</v>
-      </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96">
-        <v>1977</v>
-      </c>
-      <c r="I96">
-        <v>12</v>
-      </c>
-      <c r="J96" t="s">
-        <v>27</v>
-      </c>
-      <c r="K96" s="2">
-        <v>28479</v>
-      </c>
-      <c r="L96">
-        <v>2910</v>
-      </c>
-      <c r="M96">
-        <v>38.881321929948399</v>
-      </c>
-      <c r="N96">
-        <v>-76.926883705088798</v>
-      </c>
-      <c r="O96">
-        <v>56</v>
-      </c>
-      <c r="P96" t="s">
-        <v>28</v>
-      </c>
-      <c r="S96" t="s">
-        <v>29</v>
-      </c>
-      <c r="T96" t="s">
-        <v>43</v>
-      </c>
-      <c r="U96" t="s">
-        <v>130</v>
-      </c>
-      <c r="V96" t="s">
-        <v>394</v>
-      </c>
-      <c r="X96" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" t="s">
-        <v>396</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>2914</v>
-      </c>
-      <c r="E97" t="s">
-        <v>397</v>
-      </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-      <c r="H97">
-        <v>1977</v>
-      </c>
-      <c r="I97">
-        <v>12</v>
-      </c>
-      <c r="J97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K97" s="2">
-        <v>28483</v>
-      </c>
-      <c r="L97">
-        <v>2914</v>
-      </c>
-      <c r="M97">
-        <v>38.920393199999999</v>
-      </c>
-      <c r="N97">
-        <v>-77.002216349999998</v>
-      </c>
-      <c r="O97">
-        <v>24</v>
-      </c>
-      <c r="P97" t="s">
-        <v>28</v>
-      </c>
-      <c r="S97" t="s">
-        <v>29</v>
-      </c>
-      <c r="T97" t="s">
-        <v>70</v>
-      </c>
-      <c r="U97" t="s">
-        <v>366</v>
-      </c>
-      <c r="V97" t="s">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" t="s">
-        <v>399</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>2919</v>
-      </c>
-      <c r="E98" t="s">
-        <v>400</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="H98">
-        <v>1977</v>
-      </c>
-      <c r="I98">
-        <v>12</v>
-      </c>
-      <c r="J98" t="s">
-        <v>27</v>
-      </c>
-      <c r="K98" s="2">
-        <v>28488</v>
-      </c>
-      <c r="L98">
-        <v>2919</v>
-      </c>
-      <c r="M98">
-        <v>38.910914820000002</v>
-      </c>
-      <c r="N98">
-        <v>-77.031291269999997</v>
-      </c>
-      <c r="O98">
-        <v>59</v>
-      </c>
-      <c r="P98" t="s">
-        <v>28</v>
-      </c>
-      <c r="S98" t="s">
-        <v>96</v>
-      </c>
-      <c r="T98" t="s">
-        <v>146</v>
-      </c>
-      <c r="U98" t="s">
-        <v>401</v>
-      </c>
-      <c r="V98" t="s">
-        <v>402</v>
-      </c>
-      <c r="X98" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:X98">
+  <conditionalFormatting sqref="A2:X94">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C2 = 0</formula>
     </cfRule>

--- a/orphan_matches_debug.xlsx
+++ b/orphan_matches_debug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1fd243431e09c19f/Documents/Emily/crime/news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_E2F67758D64E142F681584B5455DCE3AD7C1075D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422E3E21-F7F8-8041-8959-094891FD3ED8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_960EC7FE9459C82E681584B5455DCE3AD7C15A60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F031DC-EDBF-564A-A4E3-DC4758F47AA1}"/>
   <bookViews>
     <workbookView xWindow="4900" yWindow="500" windowWidth="31160" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="469">
   <si>
     <t>rec_type</t>
   </si>
@@ -76,6 +76,9 @@
     <t>victim_ethnicity</t>
   </si>
   <si>
+    <t>victim_fullname_norm</t>
+  </si>
+  <si>
     <t>weapon</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>male</t>
   </si>
   <si>
+    <t>william g  smith</t>
+  </si>
+  <si>
     <t>firearm</t>
   </si>
   <si>
@@ -127,12 +133,18 @@
     <t>100046699:0:1</t>
   </si>
   <si>
+    <t>james ford</t>
+  </si>
+  <si>
     <t>entity_100056434:0:0</t>
   </si>
   <si>
     <t>100056434:0:0</t>
   </si>
   <si>
+    <t>claibourne watson</t>
+  </si>
+  <si>
     <t>fire</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t>100047107:0:0</t>
   </si>
   <si>
+    <t>garnell stuart copeland</t>
+  </si>
+  <si>
     <t>knife</t>
   </si>
   <si>
@@ -163,6 +178,9 @@
     <t>100050465:0:0</t>
   </si>
   <si>
+    <t>richard a  douglas</t>
+  </si>
+  <si>
     <t>100050465</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>female</t>
   </si>
   <si>
+    <t>gladys m  werlich</t>
+  </si>
+  <si>
     <t>frank</t>
   </si>
   <si>
@@ -214,6 +235,9 @@
     <t>100048880:0:0</t>
   </si>
   <si>
+    <t>samuel franks</t>
+  </si>
+  <si>
     <t>100048880</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>100051238:0:0</t>
   </si>
   <si>
+    <t>leroy r  miles</t>
+  </si>
+  <si>
     <t>100051238</t>
   </si>
   <si>
@@ -232,6 +259,9 @@
     <t>100057078:0:0</t>
   </si>
   <si>
+    <t>pearl edith harris</t>
+  </si>
+  <si>
     <t>argument</t>
   </si>
   <si>
@@ -250,6 +280,9 @@
     <t>100052572:0:0</t>
   </si>
   <si>
+    <t>lenora wright</t>
+  </si>
+  <si>
     <t>strangulation</t>
   </si>
   <si>
@@ -262,6 +295,9 @@
     <t>100053586:0:0</t>
   </si>
   <si>
+    <t>rachel stilts</t>
+  </si>
+  <si>
     <t>blunt object</t>
   </si>
   <si>
@@ -280,6 +316,9 @@
     <t>100054118:0:0</t>
   </si>
   <si>
+    <t>ralph whitehead</t>
+  </si>
+  <si>
     <t>100054118</t>
   </si>
   <si>
@@ -289,6 +328,9 @@
     <t>100054861:0:0</t>
   </si>
   <si>
+    <t>arthur lee watson</t>
+  </si>
+  <si>
     <t>harold</t>
   </si>
   <si>
@@ -310,6 +352,9 @@
     <t>100055731:0:0</t>
   </si>
   <si>
+    <t>montefore naylor</t>
+  </si>
+  <si>
     <t>handgun</t>
   </si>
   <si>
@@ -340,6 +385,9 @@
     <t>100057078:1:0</t>
   </si>
   <si>
+    <t>louis n  ross</t>
+  </si>
+  <si>
     <t>joe</t>
   </si>
   <si>
@@ -352,6 +400,9 @@
     <t>100057635:0:0</t>
   </si>
   <si>
+    <t>jospeh gregory williams</t>
+  </si>
+  <si>
     <t>100057635</t>
   </si>
   <si>
@@ -361,6 +412,9 @@
     <t>100057743:0:0</t>
   </si>
   <si>
+    <t>james overby</t>
+  </si>
+  <si>
     <t>marie</t>
   </si>
   <si>
@@ -385,6 +439,9 @@
     <t>100061864:0:0</t>
   </si>
   <si>
+    <t>r  seavy campbell</t>
+  </si>
+  <si>
     <t>100061864</t>
   </si>
   <si>
@@ -394,6 +451,9 @@
     <t>100063971:0:0</t>
   </si>
   <si>
+    <t>david lee johnson</t>
+  </si>
+  <si>
     <t>michael</t>
   </si>
   <si>
@@ -409,6 +469,9 @@
     <t>100062228:0:0</t>
   </si>
   <si>
+    <t>james h  martin</t>
+  </si>
+  <si>
     <t>eric</t>
   </si>
   <si>
@@ -424,6 +487,9 @@
     <t>100063507:0:0</t>
   </si>
   <si>
+    <t>willy james</t>
+  </si>
+  <si>
     <t>100063507</t>
   </si>
   <si>
@@ -433,6 +499,9 @@
     <t>100063749:0:0</t>
   </si>
   <si>
+    <t>michael cromite</t>
+  </si>
+  <si>
     <t>100063749</t>
   </si>
   <si>
@@ -442,6 +511,9 @@
     <t>100063749:1:0</t>
   </si>
   <si>
+    <t>haywood williams</t>
+  </si>
+  <si>
     <t>brawl</t>
   </si>
   <si>
@@ -451,6 +523,9 @@
     <t>100009032:1:0</t>
   </si>
   <si>
+    <t>bruce w  wilson</t>
+  </si>
+  <si>
     <t>avon</t>
   </si>
   <si>
@@ -466,6 +541,9 @@
     <t>100067593:0:0</t>
   </si>
   <si>
+    <t>stanley k  austin</t>
+  </si>
+  <si>
     <t>100067593</t>
   </si>
   <si>
@@ -475,6 +553,9 @@
     <t>100067452:0:0</t>
   </si>
   <si>
+    <t>edward b  ellis</t>
+  </si>
+  <si>
     <t>ruby</t>
   </si>
   <si>
@@ -496,6 +577,9 @@
     <t>100000119:0:0</t>
   </si>
   <si>
+    <t>william m  dixon</t>
+  </si>
+  <si>
     <t>shotgun</t>
   </si>
   <si>
@@ -511,6 +595,9 @@
     <t>100068635:0:0</t>
   </si>
   <si>
+    <t>james e  jackson</t>
+  </si>
+  <si>
     <t>100068635</t>
   </si>
   <si>
@@ -520,6 +607,9 @@
     <t>100000830:0:0</t>
   </si>
   <si>
+    <t>charles napp</t>
+  </si>
+  <si>
     <t>institutional killing</t>
   </si>
   <si>
@@ -538,6 +628,9 @@
     <t>Non-Hispanic</t>
   </si>
   <si>
+    <t>alexis goodarzi</t>
+  </si>
+  <si>
     <t>gang killing</t>
   </si>
   <si>
@@ -550,6 +643,9 @@
     <t>100004063:0:2</t>
   </si>
   <si>
+    <t>hilda gamble</t>
+  </si>
+  <si>
     <t>garfield</t>
   </si>
   <si>
@@ -565,6 +661,9 @@
     <t>100004063:0:0</t>
   </si>
   <si>
+    <t>harry lawerence</t>
+  </si>
+  <si>
     <t>100001889:0:0</t>
   </si>
   <si>
@@ -577,6 +676,9 @@
     <t>100004063:0:1</t>
   </si>
   <si>
+    <t>rebecca lawerence booker</t>
+  </si>
+  <si>
     <t>100001889:0:1</t>
   </si>
   <si>
@@ -586,6 +688,9 @@
     <t>100004075:0:0</t>
   </si>
   <si>
+    <t>edwin lee proctor</t>
+  </si>
+  <si>
     <t>john</t>
   </si>
   <si>
@@ -601,6 +706,9 @@
     <t>100004722:0:0</t>
   </si>
   <si>
+    <t>joe l  jeffries</t>
+  </si>
+  <si>
     <t>felon killed by police</t>
   </si>
   <si>
@@ -619,6 +727,9 @@
     <t>100009032:0:0</t>
   </si>
   <si>
+    <t>michael acri</t>
+  </si>
+  <si>
     <t>100009259,100009032</t>
   </si>
   <si>
@@ -628,6 +739,9 @@
     <t>100009900:0:0</t>
   </si>
   <si>
+    <t>effree queen austin</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
@@ -640,6 +754,9 @@
     <t>100009953:0:0</t>
   </si>
   <si>
+    <t>clarissa ann cornwell</t>
+  </si>
+  <si>
     <t>100009953</t>
   </si>
   <si>
@@ -649,6 +766,9 @@
     <t>100010173:0:0</t>
   </si>
   <si>
+    <t>adeline b  oates</t>
+  </si>
+  <si>
     <t>bowen</t>
   </si>
   <si>
@@ -661,6 +781,9 @@
     <t>100019391:0:0</t>
   </si>
   <si>
+    <t>timothy d  reaves</t>
+  </si>
+  <si>
     <t>curtis</t>
   </si>
   <si>
@@ -676,6 +799,9 @@
     <t>100010846:0:0</t>
   </si>
   <si>
+    <t>ronnie lee ferguson</t>
+  </si>
+  <si>
     <t>leon</t>
   </si>
   <si>
@@ -691,6 +817,9 @@
     <t>100014517:0:0</t>
   </si>
   <si>
+    <t>brady crump</t>
+  </si>
+  <si>
     <t>brady</t>
   </si>
   <si>
@@ -706,6 +835,9 @@
     <t>100014753:0:0</t>
   </si>
   <si>
+    <t>annie belle harrison</t>
+  </si>
+  <si>
     <t>norman</t>
   </si>
   <si>
@@ -718,6 +850,9 @@
     <t>100015333:0:0</t>
   </si>
   <si>
+    <t>alfonso chrisholm</t>
+  </si>
+  <si>
     <t>100016342,100015333</t>
   </si>
   <si>
@@ -727,6 +862,9 @@
     <t>100015636:0:0</t>
   </si>
   <si>
+    <t>ernest burk</t>
+  </si>
+  <si>
     <t>100015636,100020901</t>
   </si>
   <si>
@@ -736,6 +874,9 @@
     <t>100015854:0:0</t>
   </si>
   <si>
+    <t>ernest green</t>
+  </si>
+  <si>
     <t>ronald</t>
   </si>
   <si>
@@ -751,6 +892,9 @@
     <t>100015968:0:0</t>
   </si>
   <si>
+    <t>mary robinson</t>
+  </si>
+  <si>
     <t>lottie</t>
   </si>
   <si>
@@ -766,6 +910,9 @@
     <t>100016213:0:0</t>
   </si>
   <si>
+    <t>robert l  morris</t>
+  </si>
+  <si>
     <t>100016213</t>
   </si>
   <si>
@@ -775,6 +922,9 @@
     <t>100016342:0:0</t>
   </si>
   <si>
+    <t>john worthy</t>
+  </si>
+  <si>
     <t>mary</t>
   </si>
   <si>
@@ -790,6 +940,9 @@
     <t>100016685:0:0</t>
   </si>
   <si>
+    <t>john jackson</t>
+  </si>
+  <si>
     <t>gleana</t>
   </si>
   <si>
@@ -805,6 +958,9 @@
     <t>100017144:0:0</t>
   </si>
   <si>
+    <t>wayne anthony owens</t>
+  </si>
+  <si>
     <t>100017144</t>
   </si>
   <si>
@@ -814,6 +970,9 @@
     <t>100018739:0:0</t>
   </si>
   <si>
+    <t>william h  rone</t>
+  </si>
+  <si>
     <t>grace</t>
   </si>
   <si>
@@ -829,6 +988,9 @@
     <t>100019154:0:0</t>
   </si>
   <si>
+    <t>carleen anita robinson</t>
+  </si>
+  <si>
     <t>carmelita</t>
   </si>
   <si>
@@ -844,6 +1006,9 @@
     <t>100019803:0:0</t>
   </si>
   <si>
+    <t>charles hamilton woodward</t>
+  </si>
+  <si>
     <t>100019803</t>
   </si>
   <si>
@@ -853,6 +1018,9 @@
     <t>100020292:0:0</t>
   </si>
   <si>
+    <t>charles henry gaskins</t>
+  </si>
+  <si>
     <t>100020292</t>
   </si>
   <si>
@@ -862,6 +1030,9 @@
     <t>100020589:0:0</t>
   </si>
   <si>
+    <t>perry jones</t>
+  </si>
+  <si>
     <t>100021528,100020589</t>
   </si>
   <si>
@@ -871,6 +1042,9 @@
     <t>100022057:0:0</t>
   </si>
   <si>
+    <t>andrew v  jones</t>
+  </si>
+  <si>
     <t>100022057</t>
   </si>
   <si>
@@ -880,6 +1054,9 @@
     <t>100023762:0:0</t>
   </si>
   <si>
+    <t>vernon mckinley</t>
+  </si>
+  <si>
     <t>joseph</t>
   </si>
   <si>
@@ -919,6 +1096,9 @@
     <t>100025667:0:0</t>
   </si>
   <si>
+    <t>janet anne gaillard</t>
+  </si>
+  <si>
     <t>100025667</t>
   </si>
   <si>
@@ -928,6 +1108,9 @@
     <t>100026122:0:0</t>
   </si>
   <si>
+    <t>joseph boone</t>
+  </si>
+  <si>
     <t>100026122</t>
   </si>
   <si>
@@ -937,6 +1120,9 @@
     <t>100029351:0:0</t>
   </si>
   <si>
+    <t>charlotte lee</t>
+  </si>
+  <si>
     <t>daniel</t>
   </si>
   <si>
@@ -952,6 +1138,9 @@
     <t>100030454:0:0</t>
   </si>
   <si>
+    <t>leroy evans</t>
+  </si>
+  <si>
     <t>george</t>
   </si>
   <si>
@@ -967,6 +1156,9 @@
     <t>100030958:0:0</t>
   </si>
   <si>
+    <t>ralph l  payne</t>
+  </si>
+  <si>
     <t>nathaniel</t>
   </si>
   <si>
@@ -997,6 +1189,9 @@
     <t>100032715:0:0</t>
   </si>
   <si>
+    <t>james d  royal</t>
+  </si>
+  <si>
     <t>lyles</t>
   </si>
   <si>
@@ -1009,6 +1204,9 @@
     <t>100033283:0:0</t>
   </si>
   <si>
+    <t>raymond harper</t>
+  </si>
+  <si>
     <t>johnny</t>
   </si>
   <si>
@@ -1024,6 +1222,9 @@
     <t>100033633:0:0</t>
   </si>
   <si>
+    <t>mary braxton</t>
+  </si>
+  <si>
     <t>dennis</t>
   </si>
   <si>
@@ -1036,6 +1237,9 @@
     <t>100034545:0:0</t>
   </si>
   <si>
+    <t>margaret harris</t>
+  </si>
+  <si>
     <t>gaston</t>
   </si>
   <si>
@@ -1051,6 +1255,9 @@
     <t>100035465:0:0</t>
   </si>
   <si>
+    <t>brian perkins</t>
+  </si>
+  <si>
     <t>wayne</t>
   </si>
   <si>
@@ -1072,6 +1279,9 @@
     <t>100035712:0:0</t>
   </si>
   <si>
+    <t>helen perryman</t>
+  </si>
+  <si>
     <t>lover's triangle</t>
   </si>
   <si>
@@ -1090,12 +1300,18 @@
     <t>100035712:0:1</t>
   </si>
   <si>
+    <t>reginald g  copper</t>
+  </si>
+  <si>
     <t>entity_100037114:0:0</t>
   </si>
   <si>
     <t>100037114:0:0</t>
   </si>
   <si>
+    <t>ojetta collier</t>
+  </si>
+  <si>
     <t>100037114</t>
   </si>
   <si>
@@ -1114,6 +1330,9 @@
     <t>100040692:0:0</t>
   </si>
   <si>
+    <t>edward williams</t>
+  </si>
+  <si>
     <t>head</t>
   </si>
   <si>
@@ -1126,12 +1345,18 @@
     <t>100040692:1:0</t>
   </si>
   <si>
+    <t>angelo rowe</t>
+  </si>
+  <si>
     <t>entity_100044168:0:0</t>
   </si>
   <si>
     <t>100044168:0:0</t>
   </si>
   <si>
+    <t>napolen b  wilcox</t>
+  </si>
+  <si>
     <t>philips</t>
   </si>
   <si>
@@ -1144,12 +1369,18 @@
     <t>100044168:1:0</t>
   </si>
   <si>
+    <t>michael k  riley</t>
+  </si>
+  <si>
     <t>entity_100042269:0:0</t>
   </si>
   <si>
     <t>100042269:0:0</t>
   </si>
   <si>
+    <t>jacqueline hicks</t>
+  </si>
+  <si>
     <t>100042269</t>
   </si>
   <si>
@@ -1159,6 +1390,9 @@
     <t>100044008:0:0</t>
   </si>
   <si>
+    <t>william c  johnson</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
@@ -1171,6 +1405,9 @@
     <t>100044573:0:0</t>
   </si>
   <si>
+    <t>wendell ernest hughes</t>
+  </si>
+  <si>
     <t>100044573</t>
   </si>
   <si>
@@ -1178,6 +1415,9 @@
   </si>
   <si>
     <t>100045513:0:0</t>
+  </si>
+  <si>
+    <t>david p  leach</t>
   </si>
   <si>
     <t>deborah</t>
@@ -1579,41 +1819,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,13 +1903,16 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1701,7 +1921,7 @@
         <v>2560</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1713,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2">
         <v>28129</v>
@@ -1731,27 +1951,30 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
         <v>30</v>
       </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
       <c r="V2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1760,7 +1983,7 @@
         <v>2560</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1772,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2">
         <v>28129</v>
@@ -1790,27 +2013,30 @@
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1819,7 +2045,7 @@
         <v>2560</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1831,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2">
         <v>28129</v>
@@ -1849,24 +2075,27 @@
         <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1875,7 +2104,7 @@
         <v>2562</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1887,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2">
         <v>28131</v>
@@ -1905,24 +2134,27 @@
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1931,7 +2163,7 @@
         <v>2566</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1943,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2">
         <v>28135</v>
@@ -1955,24 +2187,27 @@
         <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1981,7 +2216,7 @@
         <v>2572</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2008,27 +2243,30 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
-      </c>
-      <c r="X7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="W7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2037,7 +2275,7 @@
         <v>2572</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>100037654</v>
@@ -2058,30 +2296,30 @@
         <v>2572</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
-      </c>
-      <c r="X8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="W8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2090,7 +2328,7 @@
         <v>2573</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2102,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2">
         <v>28142</v>
@@ -2120,24 +2358,27 @@
         <v>65</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="U9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2146,7 +2387,7 @@
         <v>2585</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2158,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2">
         <v>28154</v>
@@ -2176,21 +2417,24 @@
         <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2199,7 +2443,7 @@
         <v>2589</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2211,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2">
         <v>28158</v>
@@ -2229,30 +2473,33 @@
         <v>64</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="U11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
-        <v>72</v>
-      </c>
-      <c r="X11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="W11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2261,7 +2508,7 @@
         <v>2590</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2273,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2">
         <v>28159</v>
@@ -2291,21 +2538,24 @@
         <v>21</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="T12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2314,7 +2564,7 @@
         <v>2595</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2326,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2">
         <v>28164</v>
@@ -2344,30 +2594,33 @@
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
-      </c>
-      <c r="X13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="W13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2376,7 +2629,7 @@
         <v>2598</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2388,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2">
         <v>28167</v>
@@ -2406,24 +2659,27 @@
         <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="T14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2432,7 +2688,7 @@
         <v>2602</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2444,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2">
         <v>28171</v>
@@ -2462,30 +2718,33 @@
         <v>21</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S15" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="T15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U15" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>90</v>
-      </c>
-      <c r="X15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="W15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2494,7 +2753,7 @@
         <v>2602</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>100031818</v>
@@ -2520,31 +2779,31 @@
       <c r="N16">
         <v>-77.031654942115495</v>
       </c>
-      <c r="S16" t="s">
-        <v>29</v>
-      </c>
       <c r="T16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U16" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="V16" t="s">
-        <v>90</v>
-      </c>
-      <c r="W16">
-        <v>0.9956950691708345</v>
-      </c>
-      <c r="X16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="W16" t="s">
+        <v>104</v>
+      </c>
+      <c r="X16">
+        <v>0.99569506969154897</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2553,7 +2812,7 @@
         <v>2606</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2565,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2">
         <v>28175</v>
@@ -2583,27 +2842,30 @@
         <v>29</v>
       </c>
       <c r="S17" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="T17" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="U17" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="V17" t="s">
-        <v>99</v>
-      </c>
-      <c r="X17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="W17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2612,7 +2874,7 @@
         <v>2606</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F18">
         <v>100059587</v>
@@ -2627,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18" s="2">
         <v>28176</v>
@@ -2641,25 +2903,25 @@
       <c r="N18">
         <v>-77.020889030000006</v>
       </c>
-      <c r="S18" t="s">
-        <v>29</v>
-      </c>
       <c r="T18" t="s">
-        <v>102</v>
-      </c>
-      <c r="W18">
-        <v>0.97345557052718801</v>
-      </c>
-      <c r="X18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18">
+        <v>0.9734555597192146</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2668,7 +2930,7 @@
         <v>2615</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2680,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19" s="2">
         <v>28184</v>
@@ -2698,30 +2960,33 @@
         <v>51</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="T19" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="U19" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>107</v>
-      </c>
-      <c r="X19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="W19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2730,7 +2995,7 @@
         <v>2619</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2742,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K20" s="2">
         <v>28188</v>
@@ -2760,21 +3025,24 @@
         <v>27</v>
       </c>
       <c r="P20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
-      </c>
-      <c r="X20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="T20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2783,7 +3051,7 @@
         <v>2620</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2795,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K21" s="2">
         <v>28189</v>
@@ -2813,30 +3081,33 @@
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S21" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="T21" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s">
-        <v>114</v>
-      </c>
-      <c r="X21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="W21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2845,7 +3116,7 @@
         <v>2624</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F22">
         <v>100058703</v>
@@ -2860,7 +3131,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K22" s="2">
         <v>28193</v>
@@ -2874,22 +3145,22 @@
       <c r="N22">
         <v>-77.031352870000006</v>
       </c>
-      <c r="S22" t="s">
-        <v>29</v>
-      </c>
       <c r="T22" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2898,7 +3169,7 @@
         <v>2631</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2916,21 +3187,24 @@
         <v>2631</v>
       </c>
       <c r="S23" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2939,7 +3213,7 @@
         <v>2636</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2951,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K24" s="2">
         <v>28205</v>
@@ -2969,27 +3243,30 @@
         <v>55</v>
       </c>
       <c r="P24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S24" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24" t="s">
-        <v>124</v>
+        <v>143</v>
+      </c>
+      <c r="T24" t="s">
+        <v>31</v>
       </c>
       <c r="V24" t="s">
-        <v>125</v>
-      </c>
-      <c r="X24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="W24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2998,7 +3275,7 @@
         <v>2644</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3010,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K25" s="2">
         <v>28213</v>
@@ -3028,30 +3305,33 @@
         <v>20</v>
       </c>
       <c r="P25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="T25" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="U25" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="V25" t="s">
-        <v>130</v>
-      </c>
-      <c r="X25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="W25" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3060,7 +3340,7 @@
         <v>2650</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3072,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K26" s="2">
         <v>28219</v>
@@ -3090,21 +3370,24 @@
         <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
-      </c>
-      <c r="X26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="T26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3113,7 +3396,7 @@
         <v>2652</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3125,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K27" s="2">
         <v>28221</v>
@@ -3143,18 +3426,21 @@
         <v>17</v>
       </c>
       <c r="S27" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="T27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3163,7 +3449,7 @@
         <v>2652</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3175,7 +3461,7 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K28" s="2">
         <v>28221</v>
@@ -3193,21 +3479,24 @@
         <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="T28" t="s">
-        <v>140</v>
-      </c>
-      <c r="X28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="U28" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3216,7 +3505,7 @@
         <v>2671</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3228,7 +3517,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K29" s="2">
         <v>28240</v>
@@ -3246,30 +3535,33 @@
         <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S29" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="U29" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="V29" t="s">
-        <v>144</v>
-      </c>
-      <c r="X29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="W29" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3278,7 +3570,7 @@
         <v>2676</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3290,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K30" s="2">
         <v>28245</v>
@@ -3302,24 +3594,27 @@
         <v>16</v>
       </c>
       <c r="P30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="T30" t="s">
-        <v>70</v>
-      </c>
-      <c r="X30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="U30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3328,7 +3623,7 @@
         <v>2676</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3340,7 +3635,7 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K31" s="2">
         <v>28245</v>
@@ -3358,30 +3653,33 @@
         <v>20</v>
       </c>
       <c r="P31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S31" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="T31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U31" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="V31" t="s">
-        <v>152</v>
-      </c>
-      <c r="X31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="W31" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3390,7 +3688,7 @@
         <v>2676</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F32">
         <v>100067285</v>
@@ -3405,7 +3703,7 @@
         <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K32" s="2">
         <v>28243</v>
@@ -3419,31 +3717,31 @@
       <c r="N32">
         <v>-77.024937539999996</v>
       </c>
-      <c r="S32" t="s">
-        <v>29</v>
-      </c>
       <c r="T32" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U32" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="V32" t="s">
-        <v>152</v>
-      </c>
-      <c r="W32">
-        <v>0.99981876030078631</v>
-      </c>
-      <c r="X32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="W32" t="s">
+        <v>179</v>
+      </c>
+      <c r="X32">
+        <v>0.99981876022499327</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3452,7 +3750,7 @@
         <v>2679</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3464,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K33" s="2">
         <v>28248</v>
@@ -3482,30 +3780,33 @@
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S33" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="T33" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="U33" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s">
-        <v>31</v>
-      </c>
-      <c r="X33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="W33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3514,7 +3815,7 @@
         <v>2680</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3526,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K34" s="2">
         <v>28249</v>
@@ -3544,24 +3845,27 @@
         <v>22</v>
       </c>
       <c r="P34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S34" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="T34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3570,7 +3874,7 @@
         <v>2683</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3582,7 +3886,7 @@
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K35" s="2">
         <v>28252</v>
@@ -3594,21 +3898,24 @@
         <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>28</v>
-      </c>
-      <c r="T35" t="s">
-        <v>166</v>
-      </c>
-      <c r="X35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="S35" t="s">
+        <v>195</v>
+      </c>
+      <c r="U35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3617,7 +3924,7 @@
         <v>2688</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3629,7 +3936,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K36" s="2">
         <v>28257</v>
@@ -3647,30 +3954,33 @@
         <v>36</v>
       </c>
       <c r="P36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q36" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="R36" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="S36" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="T36" t="s">
-        <v>172</v>
-      </c>
-      <c r="X36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U36" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3679,7 +3989,7 @@
         <v>2691</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3691,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K37" s="2">
         <v>28260</v>
@@ -3706,27 +4016,30 @@
         <v>-76.977932780000003</v>
       </c>
       <c r="S37" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="T37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="V37" t="s">
-        <v>177</v>
-      </c>
-      <c r="X37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="W37" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3735,7 +4048,7 @@
         <v>2691</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3747,7 +4060,7 @@
         <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K38" s="2">
         <v>28260</v>
@@ -3765,30 +4078,33 @@
         <v>75</v>
       </c>
       <c r="P38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S38" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="T38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="V38" t="s">
-        <v>177</v>
-      </c>
-      <c r="X38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="W38" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3797,7 +4113,7 @@
         <v>2691</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F39">
         <v>100001889</v>
@@ -3812,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K39" s="2">
         <v>28260</v>
@@ -3830,33 +4146,33 @@
         <v>77</v>
       </c>
       <c r="P39" t="s">
-        <v>28</v>
-      </c>
-      <c r="S39" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="V39" t="s">
-        <v>177</v>
-      </c>
-      <c r="W39">
-        <v>0.99999992908129065</v>
-      </c>
-      <c r="X39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="W39" t="s">
+        <v>209</v>
+      </c>
+      <c r="X39">
+        <v>0.99999992908129931</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3865,7 +4181,7 @@
         <v>2691</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3877,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K40" s="2">
         <v>28260</v>
@@ -3895,30 +4211,33 @@
         <v>65</v>
       </c>
       <c r="P40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="T40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="V40" t="s">
-        <v>177</v>
-      </c>
-      <c r="X40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="W40" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3927,7 +4246,7 @@
         <v>2691</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F41">
         <v>100001889</v>
@@ -3942,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K41" s="2">
         <v>28260</v>
@@ -3956,31 +4275,31 @@
       <c r="N41">
         <v>-76.977932780000003</v>
       </c>
-      <c r="S41" t="s">
-        <v>37</v>
-      </c>
       <c r="T41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="V41" t="s">
-        <v>177</v>
-      </c>
-      <c r="W41">
-        <v>0.99999635576177803</v>
-      </c>
-      <c r="X41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="W41" t="s">
+        <v>209</v>
+      </c>
+      <c r="X41">
+        <v>0.99999635576221968</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3989,7 +4308,7 @@
         <v>2702</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4001,7 +4320,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K42" s="2">
         <v>28271</v>
@@ -4019,30 +4338,33 @@
         <v>19</v>
       </c>
       <c r="P42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S42" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="T42" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="U42" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s">
-        <v>189</v>
-      </c>
-      <c r="X42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="W42" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4051,7 +4373,7 @@
         <v>2706</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4063,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K43" s="2">
         <v>28275</v>
@@ -4081,30 +4403,33 @@
         <v>41</v>
       </c>
       <c r="P43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S43" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="T43" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="U43" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="V43" t="s">
-        <v>195</v>
-      </c>
-      <c r="X43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="W43" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4113,7 +4438,7 @@
         <v>2722</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4131,24 +4456,27 @@
         <v>2722</v>
       </c>
       <c r="P44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S44" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="T44" t="s">
-        <v>70</v>
-      </c>
-      <c r="X44" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4157,7 +4485,7 @@
         <v>2733</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4169,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K45" s="2">
         <v>28302</v>
@@ -4181,30 +4509,33 @@
         <v>62</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
+        <v>239</v>
+      </c>
+      <c r="T45" t="s">
+        <v>92</v>
+      </c>
+      <c r="U45" t="s">
         <v>80</v>
       </c>
-      <c r="T45" t="s">
-        <v>70</v>
-      </c>
-      <c r="U45" t="s">
-        <v>159</v>
-      </c>
       <c r="V45" t="s">
-        <v>202</v>
-      </c>
-      <c r="X45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="W45" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4213,7 +4544,7 @@
         <v>2734</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4225,7 +4556,7 @@
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K46" s="2">
         <v>28303</v>
@@ -4243,24 +4574,27 @@
         <v>27</v>
       </c>
       <c r="P46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S46" t="s">
+        <v>244</v>
+      </c>
+      <c r="T46" t="s">
+        <v>92</v>
+      </c>
+      <c r="U46" t="s">
         <v>80</v>
       </c>
-      <c r="T46" t="s">
-        <v>70</v>
-      </c>
-      <c r="X46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4269,7 +4603,7 @@
         <v>2735</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4281,7 +4615,7 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K47" s="2">
         <v>28304</v>
@@ -4299,30 +4633,33 @@
         <v>52</v>
       </c>
       <c r="P47" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S47" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="T47" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="U47" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="V47" t="s">
-        <v>209</v>
-      </c>
-      <c r="X47" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4331,7 +4668,7 @@
         <v>2736</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4343,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K48" s="2">
         <v>28305</v>
@@ -4361,27 +4698,30 @@
         <v>19</v>
       </c>
       <c r="P48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S48" t="s">
-        <v>29</v>
-      </c>
-      <c r="U48" t="s">
-        <v>213</v>
+        <v>253</v>
+      </c>
+      <c r="T48" t="s">
+        <v>31</v>
       </c>
       <c r="V48" t="s">
-        <v>214</v>
-      </c>
-      <c r="X48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="W48" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4390,7 +4730,7 @@
         <v>2738</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4402,7 +4742,7 @@
         <v>7</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K49" s="2">
         <v>28307</v>
@@ -4420,27 +4760,30 @@
         <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S49" t="s">
-        <v>29</v>
-      </c>
-      <c r="U49" t="s">
-        <v>218</v>
+        <v>259</v>
+      </c>
+      <c r="T49" t="s">
+        <v>31</v>
       </c>
       <c r="V49" t="s">
-        <v>219</v>
-      </c>
-      <c r="X49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="W49" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4449,7 +4792,7 @@
         <v>2757</v>
       </c>
       <c r="E50" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4461,7 +4804,7 @@
         <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K50" s="2">
         <v>28326</v>
@@ -4479,30 +4822,33 @@
         <v>11</v>
       </c>
       <c r="P50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S50" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="U50" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="V50" t="s">
-        <v>224</v>
-      </c>
-      <c r="X50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="W50" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4511,7 +4857,7 @@
         <v>2760</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4523,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K51" s="2">
         <v>28329</v>
@@ -4541,27 +4887,30 @@
         <v>69</v>
       </c>
       <c r="P51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S51" t="s">
-        <v>42</v>
-      </c>
-      <c r="U51" t="s">
-        <v>228</v>
+        <v>271</v>
+      </c>
+      <c r="T51" t="s">
+        <v>47</v>
       </c>
       <c r="V51" t="s">
-        <v>202</v>
-      </c>
-      <c r="X51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="W51" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4570,7 +4919,7 @@
         <v>2763</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4582,7 +4931,7 @@
         <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K52" s="2">
         <v>28332</v>
@@ -4600,24 +4949,27 @@
         <v>63</v>
       </c>
       <c r="P52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S52" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="T52" t="s">
-        <v>43</v>
-      </c>
-      <c r="X52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4626,7 +4978,7 @@
         <v>2764</v>
       </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4638,7 +4990,7 @@
         <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K53" s="2">
         <v>28333</v>
@@ -4656,24 +5008,27 @@
         <v>74</v>
       </c>
       <c r="P53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S53" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="T53" t="s">
-        <v>43</v>
-      </c>
-      <c r="X53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="U53" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4682,7 +5037,7 @@
         <v>2765</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -4694,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="J54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K54" s="2">
         <v>28334</v>
@@ -4712,30 +5067,33 @@
         <v>25</v>
       </c>
       <c r="P54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S54" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="T54" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U54" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="V54" t="s">
-        <v>239</v>
-      </c>
-      <c r="X54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="W54" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4744,7 +5102,7 @@
         <v>2766</v>
       </c>
       <c r="E55" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4756,7 +5114,7 @@
         <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K55" s="2">
         <v>28335</v>
@@ -4774,30 +5132,33 @@
         <v>25</v>
       </c>
       <c r="P55" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="T55" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="U55" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s">
-        <v>244</v>
-      </c>
-      <c r="X55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="W55" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4806,7 +5167,7 @@
         <v>2766</v>
       </c>
       <c r="E56" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -4818,7 +5179,7 @@
         <v>7</v>
       </c>
       <c r="J56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K56" s="2">
         <v>28335</v>
@@ -4836,24 +5197,27 @@
         <v>56</v>
       </c>
       <c r="P56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S56" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="T56" t="s">
-        <v>43</v>
-      </c>
-      <c r="X56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="U56" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -4862,7 +5226,7 @@
         <v>2767</v>
       </c>
       <c r="E57" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -4874,7 +5238,7 @@
         <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K57" s="2">
         <v>28336</v>
@@ -4892,27 +5256,30 @@
         <v>67</v>
       </c>
       <c r="P57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S57" t="s">
-        <v>29</v>
-      </c>
-      <c r="U57" t="s">
-        <v>251</v>
+        <v>300</v>
+      </c>
+      <c r="T57" t="s">
+        <v>31</v>
       </c>
       <c r="V57" t="s">
-        <v>252</v>
-      </c>
-      <c r="X57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="W57" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4921,7 +5288,7 @@
         <v>2770</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -4933,7 +5300,7 @@
         <v>8</v>
       </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K58" s="2">
         <v>28339</v>
@@ -4951,30 +5318,33 @@
         <v>65</v>
       </c>
       <c r="P58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S58" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="T58" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="U58" t="s">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="V58" t="s">
-        <v>257</v>
-      </c>
-      <c r="X58" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="W58" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4983,7 +5353,7 @@
         <v>2772</v>
       </c>
       <c r="E59" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -4995,7 +5365,7 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K59" s="2">
         <v>28341</v>
@@ -5007,24 +5377,27 @@
         <v>21</v>
       </c>
       <c r="P59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S59" t="s">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="T59" t="s">
-        <v>43</v>
-      </c>
-      <c r="X59" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="U59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -5033,7 +5406,7 @@
         <v>2780</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5045,7 +5418,7 @@
         <v>8</v>
       </c>
       <c r="J60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K60" s="2">
         <v>28349</v>
@@ -5063,30 +5436,33 @@
         <v>66</v>
       </c>
       <c r="P60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S60" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="T60" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="U60" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="V60" t="s">
-        <v>265</v>
-      </c>
-      <c r="X60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="W60" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -5095,7 +5471,7 @@
         <v>2783</v>
       </c>
       <c r="E61" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5107,7 +5483,7 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K61" s="2">
         <v>28352</v>
@@ -5125,30 +5501,33 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S61" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="T61" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U61" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c r="V61" t="s">
-        <v>270</v>
-      </c>
-      <c r="X61" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="W61" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5157,7 +5536,7 @@
         <v>2786</v>
       </c>
       <c r="E62" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5169,7 +5548,7 @@
         <v>8</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K62" s="2">
         <v>28355</v>
@@ -5187,21 +5566,24 @@
         <v>24</v>
       </c>
       <c r="P62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S62" t="s">
-        <v>29</v>
-      </c>
-      <c r="X62" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="T62" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -5210,7 +5592,7 @@
         <v>2789</v>
       </c>
       <c r="E63" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5222,7 +5604,7 @@
         <v>8</v>
       </c>
       <c r="J63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K63" s="2">
         <v>28358</v>
@@ -5240,21 +5622,24 @@
         <v>51</v>
       </c>
       <c r="P63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S63" t="s">
-        <v>29</v>
-      </c>
-      <c r="X63" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="T63" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -5263,7 +5648,7 @@
         <v>2791</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5275,7 +5660,7 @@
         <v>8</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K64" s="2">
         <v>28360</v>
@@ -5293,24 +5678,27 @@
         <v>57</v>
       </c>
       <c r="P64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S64" t="s">
-        <v>29</v>
+        <v>336</v>
       </c>
       <c r="T64" t="s">
-        <v>43</v>
-      </c>
-      <c r="X64" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U64" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -5319,7 +5707,7 @@
         <v>2800</v>
       </c>
       <c r="E65" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -5331,7 +5719,7 @@
         <v>9</v>
       </c>
       <c r="J65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K65" s="2">
         <v>28369</v>
@@ -5349,21 +5737,24 @@
         <v>28</v>
       </c>
       <c r="P65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S65" t="s">
-        <v>29</v>
-      </c>
-      <c r="X65" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="T65" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -5372,7 +5763,7 @@
         <v>2809</v>
       </c>
       <c r="E66" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -5384,7 +5775,7 @@
         <v>9</v>
       </c>
       <c r="J66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K66" s="2">
         <v>28378</v>
@@ -5402,30 +5793,33 @@
         <v>47</v>
       </c>
       <c r="P66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S66" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="T66" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="U66" t="s">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="V66" t="s">
-        <v>287</v>
-      </c>
-      <c r="X66" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="W66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -5434,7 +5828,7 @@
         <v>2809</v>
       </c>
       <c r="E67" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="F67">
         <v>100025447</v>
@@ -5449,7 +5843,7 @@
         <v>9</v>
       </c>
       <c r="J67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K67" s="2">
         <v>28387</v>
@@ -5457,25 +5851,25 @@
       <c r="L67">
         <v>2818</v>
       </c>
-      <c r="S67" t="s">
-        <v>29</v>
-      </c>
       <c r="T67" t="s">
-        <v>43</v>
-      </c>
-      <c r="W67">
-        <v>0.48943300718768978</v>
-      </c>
-      <c r="X67" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U67" t="s">
+        <v>48</v>
+      </c>
+      <c r="X67">
+        <v>0.48943301811865958</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -5484,7 +5878,7 @@
         <v>2809</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="F68">
         <v>100025888</v>
@@ -5510,25 +5904,25 @@
       <c r="N68">
         <v>-76.990053619999998</v>
       </c>
-      <c r="S68" t="s">
-        <v>96</v>
-      </c>
       <c r="T68" t="s">
-        <v>43</v>
-      </c>
-      <c r="W68">
-        <v>0.28091238534032531</v>
-      </c>
-      <c r="X68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="U68" t="s">
+        <v>48</v>
+      </c>
+      <c r="X68">
+        <v>0.2809124097104978</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -5537,7 +5931,7 @@
         <v>2809</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="F69">
         <v>100027128</v>
@@ -5557,25 +5951,25 @@
       <c r="L69">
         <v>2814</v>
       </c>
-      <c r="S69" t="s">
-        <v>57</v>
-      </c>
       <c r="T69" t="s">
-        <v>43</v>
-      </c>
-      <c r="W69">
-        <v>0.40079000294340938</v>
-      </c>
-      <c r="X69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="U69" t="s">
+        <v>48</v>
+      </c>
+      <c r="X69">
+        <v>0.40079003199205371</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -5584,7 +5978,7 @@
         <v>2809</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="F70">
         <v>100027129</v>
@@ -5604,25 +5998,25 @@
       <c r="L70">
         <v>2814</v>
       </c>
-      <c r="S70" t="s">
-        <v>29</v>
-      </c>
       <c r="T70" t="s">
-        <v>43</v>
-      </c>
-      <c r="W70">
-        <v>0.68092441451871444</v>
-      </c>
-      <c r="X70" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U70" t="s">
+        <v>48</v>
+      </c>
+      <c r="X70">
+        <v>0.68092444032784671</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -5631,7 +6025,7 @@
         <v>2817</v>
       </c>
       <c r="E71" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -5643,7 +6037,7 @@
         <v>9</v>
       </c>
       <c r="J71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K71" s="2">
         <v>28386</v>
@@ -5655,24 +6049,27 @@
         <v>21</v>
       </c>
       <c r="P71" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S71" t="s">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="T71" t="s">
-        <v>43</v>
-      </c>
-      <c r="X71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U71" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -5681,7 +6078,7 @@
         <v>2821</v>
       </c>
       <c r="E72" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -5693,7 +6090,7 @@
         <v>9</v>
       </c>
       <c r="J72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K72" s="2">
         <v>28390</v>
@@ -5711,21 +6108,24 @@
         <v>17</v>
       </c>
       <c r="S72" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="T72" t="s">
-        <v>70</v>
-      </c>
-      <c r="X72" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U72" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5734,7 +6134,7 @@
         <v>2837</v>
       </c>
       <c r="E73" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -5746,7 +6146,7 @@
         <v>10</v>
       </c>
       <c r="J73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K73" s="2">
         <v>28406</v>
@@ -5764,30 +6164,33 @@
         <v>21</v>
       </c>
       <c r="P73" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S73" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="T73" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U73" t="s">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c r="V73" t="s">
-        <v>306</v>
-      </c>
-      <c r="X73" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="W73" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5796,7 +6199,7 @@
         <v>2844</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -5808,7 +6211,7 @@
         <v>10</v>
       </c>
       <c r="J74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K74" s="2">
         <v>28413</v>
@@ -5826,30 +6229,33 @@
         <v>43</v>
       </c>
       <c r="P74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S74" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="T74" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="U74" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="V74" t="s">
-        <v>311</v>
-      </c>
-      <c r="X74" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="W74" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5858,7 +6264,7 @@
         <v>2847</v>
       </c>
       <c r="E75" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -5870,7 +6276,7 @@
         <v>10</v>
       </c>
       <c r="J75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K75" s="2">
         <v>28416</v>
@@ -5888,30 +6294,33 @@
         <v>37</v>
       </c>
       <c r="P75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S75" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="T75" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="U75" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="V75" t="s">
-        <v>316</v>
-      </c>
-      <c r="X75" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="W75" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5920,7 +6329,7 @@
         <v>2851</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="F76">
         <v>100031895</v>
@@ -5935,7 +6344,7 @@
         <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K76" s="2">
         <v>28420</v>
@@ -5953,30 +6362,30 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>50</v>
-      </c>
-      <c r="S76" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="T76" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="U76" t="s">
-        <v>320</v>
+        <v>117</v>
       </c>
       <c r="V76" t="s">
-        <v>321</v>
-      </c>
-      <c r="X76" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="W76" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5985,7 +6394,7 @@
         <v>2852</v>
       </c>
       <c r="E77" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -5997,7 +6406,7 @@
         <v>10</v>
       </c>
       <c r="J77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K77" s="2">
         <v>28421</v>
@@ -6012,27 +6421,30 @@
         <v>-76.973713239999995</v>
       </c>
       <c r="S77" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="T77" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="U77" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="V77" t="s">
-        <v>325</v>
-      </c>
-      <c r="X77" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="W77" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -6041,7 +6453,7 @@
         <v>2858</v>
       </c>
       <c r="E78" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -6053,7 +6465,7 @@
         <v>10</v>
       </c>
       <c r="J78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K78" s="2">
         <v>28427</v>
@@ -6071,27 +6483,30 @@
         <v>21</v>
       </c>
       <c r="P78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S78" t="s">
-        <v>29</v>
-      </c>
-      <c r="U78" t="s">
-        <v>329</v>
+        <v>394</v>
+      </c>
+      <c r="T78" t="s">
+        <v>31</v>
       </c>
       <c r="V78" t="s">
-        <v>330</v>
-      </c>
-      <c r="X78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="W78" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -6100,7 +6515,7 @@
         <v>2860</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -6112,7 +6527,7 @@
         <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K79" s="2">
         <v>28429</v>
@@ -6124,30 +6539,33 @@
         <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S79" t="s">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="T79" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="U79" t="s">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="V79" t="s">
-        <v>195</v>
-      </c>
-      <c r="X79" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="W79" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>336</v>
+        <v>403</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -6156,7 +6574,7 @@
         <v>2864</v>
       </c>
       <c r="E80" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -6168,7 +6586,7 @@
         <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K80" s="2">
         <v>28433</v>
@@ -6186,30 +6604,33 @@
         <v>57</v>
       </c>
       <c r="P80" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S80" t="s">
+        <v>405</v>
+      </c>
+      <c r="T80" t="s">
+        <v>92</v>
+      </c>
+      <c r="U80" t="s">
         <v>80</v>
       </c>
-      <c r="T80" t="s">
-        <v>70</v>
-      </c>
-      <c r="U80" t="s">
-        <v>338</v>
-      </c>
       <c r="V80" t="s">
-        <v>339</v>
-      </c>
-      <c r="X80" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="W80" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -6218,7 +6639,7 @@
         <v>2864</v>
       </c>
       <c r="E81" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -6230,7 +6651,7 @@
         <v>11</v>
       </c>
       <c r="J81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K81" s="2">
         <v>28433</v>
@@ -6248,30 +6669,33 @@
         <v>18</v>
       </c>
       <c r="P81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S81" t="s">
-        <v>96</v>
+        <v>411</v>
       </c>
       <c r="T81" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="U81" t="s">
-        <v>343</v>
+        <v>48</v>
       </c>
       <c r="V81" t="s">
-        <v>344</v>
-      </c>
-      <c r="X81" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="W81" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6280,7 +6704,7 @@
         <v>2864</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="F82">
         <v>100035465</v>
@@ -6295,7 +6719,7 @@
         <v>11</v>
       </c>
       <c r="J82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K82" s="2">
         <v>28433</v>
@@ -6310,30 +6734,30 @@
         <v>-77.033576089999997</v>
       </c>
       <c r="P82" t="s">
-        <v>28</v>
-      </c>
-      <c r="S82" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="T82" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="U82" t="s">
-        <v>343</v>
+        <v>48</v>
       </c>
       <c r="V82" t="s">
-        <v>344</v>
-      </c>
-      <c r="X82" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="W82" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -6342,7 +6766,7 @@
         <v>2869</v>
       </c>
       <c r="E83" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -6354,7 +6778,7 @@
         <v>11</v>
       </c>
       <c r="J83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K83" s="2">
         <v>28438</v>
@@ -6372,30 +6796,33 @@
         <v>27</v>
       </c>
       <c r="P83" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S83" t="s">
-        <v>29</v>
+        <v>419</v>
       </c>
       <c r="T83" t="s">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="U83" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="V83" t="s">
-        <v>352</v>
-      </c>
-      <c r="X83" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="W83" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -6404,7 +6831,7 @@
         <v>2869</v>
       </c>
       <c r="E84" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -6416,7 +6843,7 @@
         <v>11</v>
       </c>
       <c r="J84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K84" s="2">
         <v>28438</v>
@@ -6434,30 +6861,33 @@
         <v>41</v>
       </c>
       <c r="P84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S84" t="s">
-        <v>29</v>
+        <v>426</v>
       </c>
       <c r="T84" t="s">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="U84" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="V84" t="s">
-        <v>352</v>
-      </c>
-      <c r="X84" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="W84" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -6466,7 +6896,7 @@
         <v>2877</v>
       </c>
       <c r="E85" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -6478,7 +6908,7 @@
         <v>11</v>
       </c>
       <c r="J85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K85" s="2">
         <v>28446</v>
@@ -6496,21 +6926,24 @@
         <v>26</v>
       </c>
       <c r="P85" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S85" t="s">
-        <v>29</v>
-      </c>
-      <c r="X85" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="T85" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6519,7 +6952,7 @@
         <v>2882</v>
       </c>
       <c r="E86" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="F86">
         <v>100037808</v>
@@ -6534,7 +6967,7 @@
         <v>11</v>
       </c>
       <c r="J86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K86" s="2">
         <v>28451</v>
@@ -6542,22 +6975,22 @@
       <c r="L86">
         <v>2882</v>
       </c>
-      <c r="S86" t="s">
-        <v>29</v>
-      </c>
       <c r="T86" t="s">
-        <v>102</v>
-      </c>
-      <c r="X86" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="U86" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -6566,7 +6999,7 @@
         <v>2894</v>
       </c>
       <c r="E87" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -6578,7 +7011,7 @@
         <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K87" s="2">
         <v>28463</v>
@@ -6590,30 +7023,33 @@
         <v>25</v>
       </c>
       <c r="P87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S87" t="s">
-        <v>29</v>
+        <v>436</v>
       </c>
       <c r="T87" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U87" t="s">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="V87" t="s">
-        <v>364</v>
-      </c>
-      <c r="X87" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="W87" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>366</v>
+        <v>439</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -6622,7 +7058,7 @@
         <v>2895</v>
       </c>
       <c r="E88" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -6634,7 +7070,7 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K88" s="2">
         <v>28464</v>
@@ -6652,30 +7088,33 @@
         <v>24</v>
       </c>
       <c r="P88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S88" t="s">
-        <v>29</v>
+        <v>441</v>
       </c>
       <c r="T88" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U88" t="s">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="V88" t="s">
-        <v>364</v>
-      </c>
-      <c r="X88" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="W88" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -6684,7 +7123,7 @@
         <v>2896</v>
       </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -6696,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K89" s="2">
         <v>28465</v>
@@ -6714,30 +7153,33 @@
         <v>43</v>
       </c>
       <c r="P89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S89" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="T89" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
       <c r="U89" t="s">
-        <v>71</v>
+        <v>420</v>
       </c>
       <c r="V89" t="s">
-        <v>370</v>
-      </c>
-      <c r="X89" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="W89" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -6746,7 +7188,7 @@
         <v>2897</v>
       </c>
       <c r="E90" t="s">
-        <v>373</v>
+        <v>448</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -6758,7 +7200,7 @@
         <v>12</v>
       </c>
       <c r="J90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K90" s="2">
         <v>28466</v>
@@ -6776,30 +7218,33 @@
         <v>30</v>
       </c>
       <c r="P90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S90" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="T90" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="U90" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="V90" t="s">
-        <v>370</v>
-      </c>
-      <c r="X90" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -6808,7 +7253,7 @@
         <v>2903</v>
       </c>
       <c r="E91" t="s">
-        <v>375</v>
+        <v>451</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -6820,7 +7265,7 @@
         <v>12</v>
       </c>
       <c r="J91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K91" s="2">
         <v>28472</v>
@@ -6838,21 +7283,24 @@
         <v>20</v>
       </c>
       <c r="P91" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S91" t="s">
-        <v>29</v>
-      </c>
-      <c r="X91" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+      <c r="T91" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>454</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -6861,7 +7309,7 @@
         <v>2910</v>
       </c>
       <c r="E92" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -6873,7 +7321,7 @@
         <v>12</v>
       </c>
       <c r="J92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K92" s="2">
         <v>28479</v>
@@ -6891,30 +7339,33 @@
         <v>56</v>
       </c>
       <c r="P92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S92" t="s">
-        <v>29</v>
+        <v>456</v>
       </c>
       <c r="T92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U92" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="V92" t="s">
-        <v>379</v>
-      </c>
-      <c r="X92" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="W92" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -6923,7 +7374,7 @@
         <v>2914</v>
       </c>
       <c r="E93" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -6935,7 +7386,7 @@
         <v>12</v>
       </c>
       <c r="J93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K93" s="2">
         <v>28483</v>
@@ -6953,30 +7404,33 @@
         <v>24</v>
       </c>
       <c r="P93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S93" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="T93" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="U93" t="s">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="V93" t="s">
-        <v>82</v>
-      </c>
-      <c r="X93" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="W93" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -6985,7 +7439,7 @@
         <v>2919</v>
       </c>
       <c r="E94" t="s">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -6997,7 +7451,7 @@
         <v>12</v>
       </c>
       <c r="J94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K94" s="2">
         <v>28488</v>
@@ -7015,26 +7469,29 @@
         <v>59</v>
       </c>
       <c r="P94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S94" t="s">
-        <v>96</v>
+        <v>465</v>
       </c>
       <c r="T94" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="U94" t="s">
-        <v>386</v>
+        <v>164</v>
       </c>
       <c r="V94" t="s">
-        <v>387</v>
-      </c>
-      <c r="X94" t="s">
-        <v>388</v>
+        <v>466</v>
+      </c>
+      <c r="W94" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:X94">
+  <conditionalFormatting sqref="A2:Y94">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C2 = 0</formula>
     </cfRule>
